--- a/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.592739658053032</v>
+        <v>9.592739658053084</v>
       </c>
       <c r="D2">
-        <v>4.865067253517148</v>
+        <v>4.865067253517482</v>
       </c>
       <c r="E2">
-        <v>13.48069547174739</v>
+        <v>13.48069547174744</v>
       </c>
       <c r="F2">
-        <v>43.87069237713239</v>
+        <v>43.8706923771331</v>
       </c>
       <c r="G2">
-        <v>33.8550637065113</v>
+        <v>33.85506370651194</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.9086984863737</v>
+        <v>10.90869848637385</v>
       </c>
       <c r="J2">
-        <v>102.3630518660595</v>
+        <v>102.3630518660598</v>
       </c>
       <c r="K2">
-        <v>7.824289788510248</v>
+        <v>7.824289788510265</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.759919352007847</v>
+        <v>8.759919352007818</v>
       </c>
       <c r="D3">
-        <v>4.158386481792532</v>
+        <v>4.158386481792464</v>
       </c>
       <c r="E3">
-        <v>12.46010614941858</v>
+        <v>12.46010614941857</v>
       </c>
       <c r="F3">
-        <v>38.84915527337454</v>
+        <v>38.84915527337439</v>
       </c>
       <c r="G3">
-        <v>29.77955041968428</v>
+        <v>29.77955041968412</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.880774947955889</v>
+        <v>9.880774947955782</v>
       </c>
       <c r="J3">
-        <v>94.30957343997973</v>
+        <v>94.30957343997945</v>
       </c>
       <c r="K3">
-        <v>7.359750759163533</v>
+        <v>7.35975075916354</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.263000012176546</v>
+        <v>8.263000012176509</v>
       </c>
       <c r="D4">
-        <v>3.748362500948419</v>
+        <v>3.748362500948552</v>
       </c>
       <c r="E4">
-        <v>11.84139859589699</v>
+        <v>11.84139859589697</v>
       </c>
       <c r="F4">
-        <v>35.94822926001297</v>
+        <v>35.94822926001258</v>
       </c>
       <c r="G4">
-        <v>27.42176609849948</v>
+        <v>27.42176609849918</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.257722793715219</v>
+        <v>9.257722793715162</v>
       </c>
       <c r="J4">
-        <v>89.26943266770368</v>
+        <v>89.26943266770347</v>
       </c>
       <c r="K4">
-        <v>7.083792229643223</v>
+        <v>7.08379222964326</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.072370797263918</v>
+        <v>8.072370797263899</v>
       </c>
       <c r="D5">
-        <v>3.585427197137197</v>
+        <v>3.585427197137267</v>
       </c>
       <c r="E5">
-        <v>11.58991332264927</v>
+        <v>11.58991332264929</v>
       </c>
       <c r="F5">
-        <v>34.80170264308008</v>
+        <v>34.80170264307985</v>
       </c>
       <c r="G5">
-        <v>26.48885566487927</v>
+        <v>26.48885566487906</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.003972034431349</v>
+        <v>9.003972034431332</v>
       </c>
       <c r="J5">
-        <v>87.18280130397757</v>
+        <v>87.18280130397751</v>
       </c>
       <c r="K5">
-        <v>6.973026805962624</v>
+        <v>6.973026805962634</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.040702697795618</v>
+        <v>8.0407026977956</v>
       </c>
       <c r="D6">
-        <v>3.558579007867504</v>
+        <v>3.558579007867371</v>
       </c>
       <c r="E6">
-        <v>11.54816314564864</v>
+        <v>11.54816314564862</v>
       </c>
       <c r="F6">
-        <v>34.61324974815233</v>
+        <v>34.61324974815207</v>
       </c>
       <c r="G6">
-        <v>26.33544573769154</v>
+        <v>26.3354457376913</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.961801231662196</v>
+        <v>8.961801231662152</v>
       </c>
       <c r="J6">
-        <v>86.83413044600023</v>
+        <v>86.83413044600019</v>
       </c>
       <c r="K6">
-        <v>6.954722231141762</v>
+        <v>6.954722231141741</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.260429593181476</v>
+        <v>8.260429593181488</v>
       </c>
       <c r="D7">
-        <v>3.746150321840088</v>
+        <v>3.746150321840087</v>
       </c>
       <c r="E7">
-        <v>11.83800579084063</v>
+        <v>11.83800579084066</v>
       </c>
       <c r="F7">
-        <v>35.93263316295198</v>
+        <v>35.93263316295216</v>
       </c>
       <c r="G7">
-        <v>27.40908034354074</v>
+        <v>27.40908034354092</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.25430210222398</v>
+        <v>9.25430210222404</v>
       </c>
       <c r="J7">
-        <v>89.24143394392271</v>
+        <v>89.2414339439228</v>
       </c>
       <c r="K7">
-        <v>7.082292232158967</v>
+        <v>7.082292232158991</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.30486209542841</v>
+        <v>9.304862095428389</v>
       </c>
       <c r="D8">
-        <v>4.61512297457025</v>
+        <v>4.615122974570314</v>
       </c>
       <c r="E8">
-        <v>13.1261472423113</v>
+        <v>13.12614724231128</v>
       </c>
       <c r="F8">
-        <v>42.09381419987227</v>
+        <v>42.09381419987189</v>
       </c>
       <c r="G8">
-        <v>32.41353174988495</v>
+        <v>32.41353174988465</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.55124076750205</v>
+        <v>10.55124076750201</v>
       </c>
       <c r="J8">
-        <v>99.59977637996674</v>
+        <v>99.5997763799665</v>
       </c>
       <c r="K8">
-        <v>7.661714820175073</v>
+        <v>7.661714820175048</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.46769190933667</v>
+        <v>11.46769190933687</v>
       </c>
       <c r="D9">
-        <v>6.646579087502139</v>
+        <v>6.646579087502269</v>
       </c>
       <c r="E9">
-        <v>16.04840374627605</v>
+        <v>16.04840374627613</v>
       </c>
       <c r="F9">
-        <v>56.45297661274827</v>
+        <v>56.4529766127491</v>
       </c>
       <c r="G9">
-        <v>44.05781670431796</v>
+        <v>44.05781670431866</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.29937432746472</v>
+        <v>13.29937432746486</v>
       </c>
       <c r="J9">
-        <v>119.791884658808</v>
+        <v>119.7918846588083</v>
       </c>
       <c r="K9">
-        <v>9.074760807953975</v>
+        <v>9.074760807954018</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.3950988214456</v>
+        <v>13.39509882144554</v>
       </c>
       <c r="D10">
-        <v>8.778411313617825</v>
+        <v>8.778411313617887</v>
       </c>
       <c r="E10">
-        <v>18.68096448575702</v>
+        <v>18.68096448575697</v>
       </c>
       <c r="F10">
-        <v>71.16920968080032</v>
+        <v>71.16920968080035</v>
       </c>
       <c r="G10">
-        <v>56.00499400371663</v>
+        <v>56.0049940037166</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.89367760192443</v>
+        <v>15.89367760192441</v>
       </c>
       <c r="J10">
-        <v>136.5162668600742</v>
+        <v>136.516266860074</v>
       </c>
       <c r="K10">
-        <v>10.49088095063889</v>
+        <v>10.49088095063886</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.62637916460222</v>
+        <v>14.62637916460203</v>
       </c>
       <c r="D11">
-        <v>10.31764791848049</v>
+        <v>10.31764791848035</v>
       </c>
       <c r="E11">
-        <v>20.3553404855888</v>
+        <v>20.35534048558861</v>
       </c>
       <c r="F11">
-        <v>81.53969161350986</v>
+        <v>81.53969161350871</v>
       </c>
       <c r="G11">
-        <v>64.44233147321025</v>
+        <v>64.44233147320928</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.64384238087425</v>
+        <v>17.64384238087405</v>
       </c>
       <c r="J11">
-        <v>146.4001013518396</v>
+        <v>146.4001013518387</v>
       </c>
       <c r="K11">
-        <v>11.39183374862878</v>
+        <v>11.3918337486287</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.31236688886251</v>
+        <v>15.31236688886267</v>
       </c>
       <c r="D12">
-        <v>11.24074262829435</v>
+        <v>11.24074262829462</v>
       </c>
       <c r="E12">
-        <v>21.28716558364086</v>
+        <v>21.28716558364107</v>
       </c>
       <c r="F12">
-        <v>87.66088288254508</v>
+        <v>87.66088288254625</v>
       </c>
       <c r="G12">
-        <v>69.43063718284893</v>
+        <v>69.43063718284986</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.65764426444256</v>
+        <v>18.65764426444275</v>
       </c>
       <c r="J12">
-        <v>151.5698155512477</v>
+        <v>151.5698155512486</v>
       </c>
       <c r="K12">
-        <v>11.89365248092262</v>
+        <v>11.89365248092271</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.14070498527026</v>
+        <v>15.14070498527024</v>
       </c>
       <c r="D13">
         <v>11.00515706846272</v>
       </c>
       <c r="E13">
-        <v>21.05397991936467</v>
+        <v>21.0539799193647</v>
       </c>
       <c r="F13">
-        <v>86.10545721547119</v>
+        <v>86.10545721547153</v>
       </c>
       <c r="G13">
-        <v>68.16248985187148</v>
+        <v>68.1624898518717</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.40106560391063</v>
+        <v>18.40106560391064</v>
       </c>
       <c r="J13">
-        <v>150.3014004547591</v>
+        <v>150.3014004547594</v>
       </c>
       <c r="K13">
-        <v>11.76802667477896</v>
+        <v>11.76802667477898</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,31 +871,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.67467395743458</v>
+        <v>14.67467395743472</v>
       </c>
       <c r="D14">
-        <v>10.38105299553515</v>
+        <v>10.38105299553534</v>
       </c>
       <c r="E14">
-        <v>20.42094911646824</v>
+        <v>20.42094911646844</v>
       </c>
       <c r="F14">
-        <v>81.96244212937252</v>
+        <v>81.96244212937428</v>
       </c>
       <c r="G14">
-        <v>64.78664123142337</v>
+        <v>64.78664123142484</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.71423884349445</v>
+        <v>17.71423884349471</v>
       </c>
       <c r="J14">
-        <v>146.7725984483985</v>
+        <v>146.7725984483994</v>
       </c>
       <c r="K14">
-        <v>11.42715179342483</v>
+        <v>11.42715179342495</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.43226502743686</v>
+        <v>14.43226502743674</v>
       </c>
       <c r="D15">
-        <v>10.06516582315538</v>
+        <v>10.06516582315519</v>
       </c>
       <c r="E15">
-        <v>20.09160455797642</v>
+        <v>20.09160455797641</v>
       </c>
       <c r="F15">
-        <v>79.85285697598212</v>
+        <v>79.85285697598179</v>
       </c>
       <c r="G15">
-        <v>63.06877698070832</v>
+        <v>63.06877698070799</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.36230708835603</v>
+        <v>17.36230708835597</v>
       </c>
       <c r="J15">
-        <v>144.8905920450951</v>
+        <v>144.8905920450952</v>
       </c>
       <c r="K15">
-        <v>11.24987730533321</v>
+        <v>11.24987730533323</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.32754401857356</v>
+        <v>13.32754401857353</v>
       </c>
       <c r="D16">
-        <v>8.698129696682352</v>
+        <v>8.698129696682217</v>
       </c>
       <c r="E16">
-        <v>18.58896680118945</v>
+        <v>18.58896680118946</v>
       </c>
       <c r="F16">
-        <v>70.62252121353794</v>
+        <v>70.62252121353784</v>
       </c>
       <c r="G16">
-        <v>55.56067014287098</v>
+        <v>55.56067014287088</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.79995505168852</v>
+        <v>15.7999550516885</v>
       </c>
       <c r="J16">
-        <v>135.9541088526474</v>
+        <v>135.9541088526475</v>
       </c>
       <c r="K16">
-        <v>10.44139082795806</v>
+        <v>10.4413908279581</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.77266944309345</v>
+        <v>12.77266944309341</v>
       </c>
       <c r="D17">
-        <v>8.054446203874013</v>
+        <v>8.054446203874283</v>
       </c>
       <c r="E17">
-        <v>17.83264749436936</v>
+        <v>17.83264749436939</v>
       </c>
       <c r="F17">
-        <v>66.21802712626723</v>
+        <v>66.21802712626781</v>
       </c>
       <c r="G17">
-        <v>51.98244291771083</v>
+        <v>51.98244291771138</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.03833167645187</v>
+        <v>15.03833167645195</v>
       </c>
       <c r="J17">
-        <v>131.2663272025019</v>
+        <v>131.2663272025023</v>
       </c>
       <c r="K17">
-        <v>10.03454393539611</v>
+        <v>10.03454393539614</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.47699567374116</v>
+        <v>12.47699567374127</v>
       </c>
       <c r="D18">
-        <v>7.722668692502635</v>
+        <v>7.722668692502769</v>
       </c>
       <c r="E18">
-        <v>17.42909572691816</v>
+        <v>17.42909572691824</v>
       </c>
       <c r="F18">
-        <v>63.93297346594358</v>
+        <v>63.93297346594439</v>
       </c>
       <c r="G18">
-        <v>50.12708381226992</v>
+        <v>50.12708381227063</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.63817410714881</v>
+        <v>14.6381741071489</v>
       </c>
       <c r="J18">
-        <v>128.7195113050889</v>
+        <v>128.7195113050896</v>
       </c>
       <c r="K18">
-        <v>9.817465691400505</v>
+        <v>9.817465691400491</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.37990990126907</v>
+        <v>12.37990990126904</v>
       </c>
       <c r="D19">
-        <v>7.615394262896801</v>
+        <v>7.615394262896869</v>
       </c>
       <c r="E19">
         <v>17.29650106892376</v>
       </c>
       <c r="F19">
-        <v>63.19198465821135</v>
+        <v>63.19198465821174</v>
       </c>
       <c r="G19">
-        <v>49.52557501608759</v>
+        <v>49.52557501608791</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.50760223989525</v>
+        <v>14.50760223989529</v>
       </c>
       <c r="J19">
         <v>127.876192318135</v>
       </c>
       <c r="K19">
-        <v>9.746140479234404</v>
+        <v>9.746140479234402</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.82903319310406</v>
+        <v>12.82903319310416</v>
       </c>
       <c r="D20">
-        <v>8.11856784540265</v>
+        <v>8.118567845402778</v>
       </c>
       <c r="E20">
-        <v>17.90953200356147</v>
+        <v>17.90953200356153</v>
       </c>
       <c r="F20">
-        <v>66.6584887310969</v>
+        <v>66.65848873109796</v>
       </c>
       <c r="G20">
-        <v>52.34015550295481</v>
+        <v>52.34015550295567</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.115050210341</v>
+        <v>15.1150502103411</v>
       </c>
       <c r="J20">
-        <v>131.7480655425655</v>
+        <v>131.7480655425659</v>
       </c>
       <c r="K20">
-        <v>10.07590171384244</v>
+        <v>10.07590171384243</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.80060428960286</v>
+        <v>14.80060428960291</v>
       </c>
       <c r="D21">
-        <v>10.5474969559834</v>
+        <v>10.5474969559832</v>
       </c>
       <c r="E21">
-        <v>20.59201514951144</v>
+        <v>20.59201514951139</v>
       </c>
       <c r="F21">
-        <v>83.07056950324704</v>
+        <v>83.07056950324653</v>
       </c>
       <c r="G21">
-        <v>65.68929655890818</v>
+        <v>65.68929655890777</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.89847395134351</v>
+        <v>17.89847395134343</v>
       </c>
       <c r="J21">
-        <v>147.7380195423205</v>
+        <v>147.7380195423203</v>
       </c>
       <c r="K21">
-        <v>11.51924764049816</v>
+        <v>11.51924764049809</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.80060428960286</v>
+        <v>14.80060428960291</v>
       </c>
       <c r="D22">
-        <v>10.5474969559834</v>
+        <v>10.5474969559832</v>
       </c>
       <c r="E22">
-        <v>20.59201514951144</v>
+        <v>20.59201514951139</v>
       </c>
       <c r="F22">
-        <v>83.07056950324704</v>
+        <v>83.07056950324653</v>
       </c>
       <c r="G22">
-        <v>65.68929655890818</v>
+        <v>65.68929655890777</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.89847395134351</v>
+        <v>17.89847395134343</v>
       </c>
       <c r="J22">
-        <v>147.7380195423205</v>
+        <v>147.7380195423203</v>
       </c>
       <c r="K22">
-        <v>11.51924764049816</v>
+        <v>11.51924764049809</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.80060428960286</v>
+        <v>14.80060428960291</v>
       </c>
       <c r="D23">
-        <v>10.5474969559834</v>
+        <v>10.5474969559832</v>
       </c>
       <c r="E23">
-        <v>20.59201514951144</v>
+        <v>20.59201514951139</v>
       </c>
       <c r="F23">
-        <v>83.07056950324704</v>
+        <v>83.07056950324653</v>
       </c>
       <c r="G23">
-        <v>65.68929655890818</v>
+        <v>65.68929655890777</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.89847395134351</v>
+        <v>17.89847395134343</v>
       </c>
       <c r="J23">
-        <v>147.7380195423205</v>
+        <v>147.7380195423203</v>
       </c>
       <c r="K23">
-        <v>11.51924764049816</v>
+        <v>11.51924764049809</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.80060428960286</v>
+        <v>14.80060428960291</v>
       </c>
       <c r="D24">
-        <v>10.5474969559834</v>
+        <v>10.5474969559832</v>
       </c>
       <c r="E24">
-        <v>20.59201514951144</v>
+        <v>20.59201514951139</v>
       </c>
       <c r="F24">
-        <v>83.07056950324704</v>
+        <v>83.07056950324653</v>
       </c>
       <c r="G24">
-        <v>65.68929655890818</v>
+        <v>65.68929655890777</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.89847395134351</v>
+        <v>17.89847395134343</v>
       </c>
       <c r="J24">
-        <v>147.7380195423205</v>
+        <v>147.7380195423203</v>
       </c>
       <c r="K24">
-        <v>11.51924764049816</v>
+        <v>11.51924764049809</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>14.80060428960286</v>
+        <v>14.80060428960291</v>
       </c>
       <c r="D25">
-        <v>10.5474969559834</v>
+        <v>10.5474969559832</v>
       </c>
       <c r="E25">
-        <v>20.59201514951144</v>
+        <v>20.59201514951139</v>
       </c>
       <c r="F25">
-        <v>83.07056950324704</v>
+        <v>83.07056950324653</v>
       </c>
       <c r="G25">
-        <v>65.68929655890818</v>
+        <v>65.68929655890777</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.89847395134351</v>
+        <v>17.89847395134343</v>
       </c>
       <c r="J25">
-        <v>147.7380195423205</v>
+        <v>147.7380195423203</v>
       </c>
       <c r="K25">
-        <v>11.51924764049816</v>
+        <v>11.51924764049809</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.592739658053084</v>
+        <v>9.592739658053032</v>
       </c>
       <c r="D2">
-        <v>4.865067253517482</v>
+        <v>4.865067253517148</v>
       </c>
       <c r="E2">
-        <v>13.48069547174744</v>
+        <v>13.48069547174739</v>
       </c>
       <c r="F2">
-        <v>43.8706923771331</v>
+        <v>43.87069237713239</v>
       </c>
       <c r="G2">
-        <v>33.85506370651194</v>
+        <v>33.8550637065113</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.90869848637385</v>
+        <v>10.9086984863737</v>
       </c>
       <c r="J2">
-        <v>102.3630518660598</v>
+        <v>102.3630518660595</v>
       </c>
       <c r="K2">
-        <v>7.824289788510265</v>
+        <v>7.824289788510248</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.759919352007818</v>
+        <v>8.759919352007847</v>
       </c>
       <c r="D3">
-        <v>4.158386481792464</v>
+        <v>4.158386481792532</v>
       </c>
       <c r="E3">
-        <v>12.46010614941857</v>
+        <v>12.46010614941858</v>
       </c>
       <c r="F3">
-        <v>38.84915527337439</v>
+        <v>38.84915527337454</v>
       </c>
       <c r="G3">
-        <v>29.77955041968412</v>
+        <v>29.77955041968428</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.880774947955782</v>
+        <v>9.880774947955889</v>
       </c>
       <c r="J3">
-        <v>94.30957343997945</v>
+        <v>94.30957343997973</v>
       </c>
       <c r="K3">
-        <v>7.35975075916354</v>
+        <v>7.359750759163533</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.263000012176509</v>
+        <v>8.263000012176546</v>
       </c>
       <c r="D4">
-        <v>3.748362500948552</v>
+        <v>3.748362500948419</v>
       </c>
       <c r="E4">
-        <v>11.84139859589697</v>
+        <v>11.84139859589699</v>
       </c>
       <c r="F4">
-        <v>35.94822926001258</v>
+        <v>35.94822926001297</v>
       </c>
       <c r="G4">
-        <v>27.42176609849918</v>
+        <v>27.42176609849948</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.257722793715162</v>
+        <v>9.257722793715219</v>
       </c>
       <c r="J4">
-        <v>89.26943266770347</v>
+        <v>89.26943266770368</v>
       </c>
       <c r="K4">
-        <v>7.08379222964326</v>
+        <v>7.083792229643223</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.072370797263899</v>
+        <v>8.072370797263918</v>
       </c>
       <c r="D5">
-        <v>3.585427197137267</v>
+        <v>3.585427197137197</v>
       </c>
       <c r="E5">
-        <v>11.58991332264929</v>
+        <v>11.58991332264927</v>
       </c>
       <c r="F5">
-        <v>34.80170264307985</v>
+        <v>34.80170264308008</v>
       </c>
       <c r="G5">
-        <v>26.48885566487906</v>
+        <v>26.48885566487927</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.003972034431332</v>
+        <v>9.003972034431349</v>
       </c>
       <c r="J5">
-        <v>87.18280130397751</v>
+        <v>87.18280130397757</v>
       </c>
       <c r="K5">
-        <v>6.973026805962634</v>
+        <v>6.973026805962624</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.0407026977956</v>
+        <v>8.040702697795618</v>
       </c>
       <c r="D6">
-        <v>3.558579007867371</v>
+        <v>3.558579007867504</v>
       </c>
       <c r="E6">
-        <v>11.54816314564862</v>
+        <v>11.54816314564864</v>
       </c>
       <c r="F6">
-        <v>34.61324974815207</v>
+        <v>34.61324974815233</v>
       </c>
       <c r="G6">
-        <v>26.3354457376913</v>
+        <v>26.33544573769154</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.961801231662152</v>
+        <v>8.961801231662196</v>
       </c>
       <c r="J6">
-        <v>86.83413044600019</v>
+        <v>86.83413044600023</v>
       </c>
       <c r="K6">
-        <v>6.954722231141741</v>
+        <v>6.954722231141762</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.260429593181488</v>
+        <v>8.260429593181476</v>
       </c>
       <c r="D7">
-        <v>3.746150321840087</v>
+        <v>3.746150321840088</v>
       </c>
       <c r="E7">
-        <v>11.83800579084066</v>
+        <v>11.83800579084063</v>
       </c>
       <c r="F7">
-        <v>35.93263316295216</v>
+        <v>35.93263316295198</v>
       </c>
       <c r="G7">
-        <v>27.40908034354092</v>
+        <v>27.40908034354074</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.25430210222404</v>
+        <v>9.25430210222398</v>
       </c>
       <c r="J7">
-        <v>89.2414339439228</v>
+        <v>89.24143394392271</v>
       </c>
       <c r="K7">
-        <v>7.082292232158991</v>
+        <v>7.082292232158967</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.304862095428389</v>
+        <v>9.30486209542841</v>
       </c>
       <c r="D8">
-        <v>4.615122974570314</v>
+        <v>4.61512297457025</v>
       </c>
       <c r="E8">
-        <v>13.12614724231128</v>
+        <v>13.1261472423113</v>
       </c>
       <c r="F8">
-        <v>42.09381419987189</v>
+        <v>42.09381419987227</v>
       </c>
       <c r="G8">
-        <v>32.41353174988465</v>
+        <v>32.41353174988495</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.55124076750201</v>
+        <v>10.55124076750205</v>
       </c>
       <c r="J8">
-        <v>99.5997763799665</v>
+        <v>99.59977637996674</v>
       </c>
       <c r="K8">
-        <v>7.661714820175048</v>
+        <v>7.661714820175073</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.46769190933687</v>
+        <v>11.46769190933667</v>
       </c>
       <c r="D9">
-        <v>6.646579087502269</v>
+        <v>6.646579087502139</v>
       </c>
       <c r="E9">
-        <v>16.04840374627613</v>
+        <v>16.04840374627605</v>
       </c>
       <c r="F9">
-        <v>56.4529766127491</v>
+        <v>56.45297661274827</v>
       </c>
       <c r="G9">
-        <v>44.05781670431866</v>
+        <v>44.05781670431796</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.29937432746486</v>
+        <v>13.29937432746472</v>
       </c>
       <c r="J9">
-        <v>119.7918846588083</v>
+        <v>119.791884658808</v>
       </c>
       <c r="K9">
-        <v>9.074760807954018</v>
+        <v>9.074760807953975</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.39509882144554</v>
+        <v>13.3950988214456</v>
       </c>
       <c r="D10">
-        <v>8.778411313617887</v>
+        <v>8.778411313617825</v>
       </c>
       <c r="E10">
-        <v>18.68096448575697</v>
+        <v>18.68096448575702</v>
       </c>
       <c r="F10">
-        <v>71.16920968080035</v>
+        <v>71.16920968080032</v>
       </c>
       <c r="G10">
-        <v>56.0049940037166</v>
+        <v>56.00499400371663</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.89367760192441</v>
+        <v>15.89367760192443</v>
       </c>
       <c r="J10">
-        <v>136.516266860074</v>
+        <v>136.5162668600742</v>
       </c>
       <c r="K10">
-        <v>10.49088095063886</v>
+        <v>10.49088095063889</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.62637916460203</v>
+        <v>14.62637916460222</v>
       </c>
       <c r="D11">
-        <v>10.31764791848035</v>
+        <v>10.31764791848049</v>
       </c>
       <c r="E11">
-        <v>20.35534048558861</v>
+        <v>20.3553404855888</v>
       </c>
       <c r="F11">
-        <v>81.53969161350871</v>
+        <v>81.53969161350986</v>
       </c>
       <c r="G11">
-        <v>64.44233147320928</v>
+        <v>64.44233147321025</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.64384238087405</v>
+        <v>17.64384238087425</v>
       </c>
       <c r="J11">
-        <v>146.4001013518387</v>
+        <v>146.4001013518396</v>
       </c>
       <c r="K11">
-        <v>11.3918337486287</v>
+        <v>11.39183374862878</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.31236688886267</v>
+        <v>15.31236688886251</v>
       </c>
       <c r="D12">
-        <v>11.24074262829462</v>
+        <v>11.24074262829435</v>
       </c>
       <c r="E12">
-        <v>21.28716558364107</v>
+        <v>21.28716558364086</v>
       </c>
       <c r="F12">
-        <v>87.66088288254625</v>
+        <v>87.66088288254508</v>
       </c>
       <c r="G12">
-        <v>69.43063718284986</v>
+        <v>69.43063718284893</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.65764426444275</v>
+        <v>18.65764426444256</v>
       </c>
       <c r="J12">
-        <v>151.5698155512486</v>
+        <v>151.5698155512477</v>
       </c>
       <c r="K12">
-        <v>11.89365248092271</v>
+        <v>11.89365248092262</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.14070498527024</v>
+        <v>15.14070498527026</v>
       </c>
       <c r="D13">
         <v>11.00515706846272</v>
       </c>
       <c r="E13">
-        <v>21.0539799193647</v>
+        <v>21.05397991936467</v>
       </c>
       <c r="F13">
-        <v>86.10545721547153</v>
+        <v>86.10545721547119</v>
       </c>
       <c r="G13">
-        <v>68.1624898518717</v>
+        <v>68.16248985187148</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.40106560391064</v>
+        <v>18.40106560391063</v>
       </c>
       <c r="J13">
-        <v>150.3014004547594</v>
+        <v>150.3014004547591</v>
       </c>
       <c r="K13">
-        <v>11.76802667477898</v>
+        <v>11.76802667477896</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,31 +871,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.67467395743472</v>
+        <v>14.67467395743458</v>
       </c>
       <c r="D14">
-        <v>10.38105299553534</v>
+        <v>10.38105299553515</v>
       </c>
       <c r="E14">
-        <v>20.42094911646844</v>
+        <v>20.42094911646824</v>
       </c>
       <c r="F14">
-        <v>81.96244212937428</v>
+        <v>81.96244212937252</v>
       </c>
       <c r="G14">
-        <v>64.78664123142484</v>
+        <v>64.78664123142337</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.71423884349471</v>
+        <v>17.71423884349445</v>
       </c>
       <c r="J14">
-        <v>146.7725984483994</v>
+        <v>146.7725984483985</v>
       </c>
       <c r="K14">
-        <v>11.42715179342495</v>
+        <v>11.42715179342483</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.43226502743674</v>
+        <v>14.43226502743686</v>
       </c>
       <c r="D15">
-        <v>10.06516582315519</v>
+        <v>10.06516582315538</v>
       </c>
       <c r="E15">
-        <v>20.09160455797641</v>
+        <v>20.09160455797642</v>
       </c>
       <c r="F15">
-        <v>79.85285697598179</v>
+        <v>79.85285697598212</v>
       </c>
       <c r="G15">
-        <v>63.06877698070799</v>
+        <v>63.06877698070832</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.36230708835597</v>
+        <v>17.36230708835603</v>
       </c>
       <c r="J15">
-        <v>144.8905920450952</v>
+        <v>144.8905920450951</v>
       </c>
       <c r="K15">
-        <v>11.24987730533323</v>
+        <v>11.24987730533321</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.32754401857353</v>
+        <v>13.32754401857356</v>
       </c>
       <c r="D16">
-        <v>8.698129696682217</v>
+        <v>8.698129696682352</v>
       </c>
       <c r="E16">
-        <v>18.58896680118946</v>
+        <v>18.58896680118945</v>
       </c>
       <c r="F16">
-        <v>70.62252121353784</v>
+        <v>70.62252121353794</v>
       </c>
       <c r="G16">
-        <v>55.56067014287088</v>
+        <v>55.56067014287098</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.7999550516885</v>
+        <v>15.79995505168852</v>
       </c>
       <c r="J16">
-        <v>135.9541088526475</v>
+        <v>135.9541088526474</v>
       </c>
       <c r="K16">
-        <v>10.4413908279581</v>
+        <v>10.44139082795806</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.77266944309341</v>
+        <v>12.77266944309345</v>
       </c>
       <c r="D17">
-        <v>8.054446203874283</v>
+        <v>8.054446203874013</v>
       </c>
       <c r="E17">
-        <v>17.83264749436939</v>
+        <v>17.83264749436936</v>
       </c>
       <c r="F17">
-        <v>66.21802712626781</v>
+        <v>66.21802712626723</v>
       </c>
       <c r="G17">
-        <v>51.98244291771138</v>
+        <v>51.98244291771083</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.03833167645195</v>
+        <v>15.03833167645187</v>
       </c>
       <c r="J17">
-        <v>131.2663272025023</v>
+        <v>131.2663272025019</v>
       </c>
       <c r="K17">
-        <v>10.03454393539614</v>
+        <v>10.03454393539611</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.47699567374127</v>
+        <v>12.47699567374116</v>
       </c>
       <c r="D18">
-        <v>7.722668692502769</v>
+        <v>7.722668692502635</v>
       </c>
       <c r="E18">
-        <v>17.42909572691824</v>
+        <v>17.42909572691816</v>
       </c>
       <c r="F18">
-        <v>63.93297346594439</v>
+        <v>63.93297346594358</v>
       </c>
       <c r="G18">
-        <v>50.12708381227063</v>
+        <v>50.12708381226992</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.6381741071489</v>
+        <v>14.63817410714881</v>
       </c>
       <c r="J18">
-        <v>128.7195113050896</v>
+        <v>128.7195113050889</v>
       </c>
       <c r="K18">
-        <v>9.817465691400491</v>
+        <v>9.817465691400505</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.37990990126904</v>
+        <v>12.37990990126907</v>
       </c>
       <c r="D19">
-        <v>7.615394262896869</v>
+        <v>7.615394262896801</v>
       </c>
       <c r="E19">
         <v>17.29650106892376</v>
       </c>
       <c r="F19">
-        <v>63.19198465821174</v>
+        <v>63.19198465821135</v>
       </c>
       <c r="G19">
-        <v>49.52557501608791</v>
+        <v>49.52557501608759</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.50760223989529</v>
+        <v>14.50760223989525</v>
       </c>
       <c r="J19">
         <v>127.876192318135</v>
       </c>
       <c r="K19">
-        <v>9.746140479234402</v>
+        <v>9.746140479234404</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.82903319310416</v>
+        <v>12.82903319310406</v>
       </c>
       <c r="D20">
-        <v>8.118567845402778</v>
+        <v>8.11856784540265</v>
       </c>
       <c r="E20">
-        <v>17.90953200356153</v>
+        <v>17.90953200356147</v>
       </c>
       <c r="F20">
-        <v>66.65848873109796</v>
+        <v>66.6584887310969</v>
       </c>
       <c r="G20">
-        <v>52.34015550295567</v>
+        <v>52.34015550295481</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.1150502103411</v>
+        <v>15.115050210341</v>
       </c>
       <c r="J20">
-        <v>131.7480655425659</v>
+        <v>131.7480655425655</v>
       </c>
       <c r="K20">
-        <v>10.07590171384243</v>
+        <v>10.07590171384244</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.80060428960291</v>
+        <v>14.80060428960286</v>
       </c>
       <c r="D21">
-        <v>10.5474969559832</v>
+        <v>10.5474969559834</v>
       </c>
       <c r="E21">
-        <v>20.59201514951139</v>
+        <v>20.59201514951144</v>
       </c>
       <c r="F21">
-        <v>83.07056950324653</v>
+        <v>83.07056950324704</v>
       </c>
       <c r="G21">
-        <v>65.68929655890777</v>
+        <v>65.68929655890818</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.89847395134343</v>
+        <v>17.89847395134351</v>
       </c>
       <c r="J21">
-        <v>147.7380195423203</v>
+        <v>147.7380195423205</v>
       </c>
       <c r="K21">
-        <v>11.51924764049809</v>
+        <v>11.51924764049816</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.80060428960291</v>
+        <v>14.80060428960286</v>
       </c>
       <c r="D22">
-        <v>10.5474969559832</v>
+        <v>10.5474969559834</v>
       </c>
       <c r="E22">
-        <v>20.59201514951139</v>
+        <v>20.59201514951144</v>
       </c>
       <c r="F22">
-        <v>83.07056950324653</v>
+        <v>83.07056950324704</v>
       </c>
       <c r="G22">
-        <v>65.68929655890777</v>
+        <v>65.68929655890818</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.89847395134343</v>
+        <v>17.89847395134351</v>
       </c>
       <c r="J22">
-        <v>147.7380195423203</v>
+        <v>147.7380195423205</v>
       </c>
       <c r="K22">
-        <v>11.51924764049809</v>
+        <v>11.51924764049816</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.80060428960291</v>
+        <v>14.80060428960286</v>
       </c>
       <c r="D23">
-        <v>10.5474969559832</v>
+        <v>10.5474969559834</v>
       </c>
       <c r="E23">
-        <v>20.59201514951139</v>
+        <v>20.59201514951144</v>
       </c>
       <c r="F23">
-        <v>83.07056950324653</v>
+        <v>83.07056950324704</v>
       </c>
       <c r="G23">
-        <v>65.68929655890777</v>
+        <v>65.68929655890818</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.89847395134343</v>
+        <v>17.89847395134351</v>
       </c>
       <c r="J23">
-        <v>147.7380195423203</v>
+        <v>147.7380195423205</v>
       </c>
       <c r="K23">
-        <v>11.51924764049809</v>
+        <v>11.51924764049816</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.80060428960291</v>
+        <v>14.80060428960286</v>
       </c>
       <c r="D24">
-        <v>10.5474969559832</v>
+        <v>10.5474969559834</v>
       </c>
       <c r="E24">
-        <v>20.59201514951139</v>
+        <v>20.59201514951144</v>
       </c>
       <c r="F24">
-        <v>83.07056950324653</v>
+        <v>83.07056950324704</v>
       </c>
       <c r="G24">
-        <v>65.68929655890777</v>
+        <v>65.68929655890818</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.89847395134343</v>
+        <v>17.89847395134351</v>
       </c>
       <c r="J24">
-        <v>147.7380195423203</v>
+        <v>147.7380195423205</v>
       </c>
       <c r="K24">
-        <v>11.51924764049809</v>
+        <v>11.51924764049816</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>14.80060428960291</v>
+        <v>14.80060428960286</v>
       </c>
       <c r="D25">
-        <v>10.5474969559832</v>
+        <v>10.5474969559834</v>
       </c>
       <c r="E25">
-        <v>20.59201514951139</v>
+        <v>20.59201514951144</v>
       </c>
       <c r="F25">
-        <v>83.07056950324653</v>
+        <v>83.07056950324704</v>
       </c>
       <c r="G25">
-        <v>65.68929655890777</v>
+        <v>65.68929655890818</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.89847395134343</v>
+        <v>17.89847395134351</v>
       </c>
       <c r="J25">
-        <v>147.7380195423203</v>
+        <v>147.7380195423205</v>
       </c>
       <c r="K25">
-        <v>11.51924764049809</v>
+        <v>11.51924764049816</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.592739658053032</v>
+        <v>9.591681145769357</v>
       </c>
       <c r="D2">
-        <v>4.865067253517148</v>
+        <v>4.860107812271381</v>
       </c>
       <c r="E2">
-        <v>13.48069547174739</v>
+        <v>13.48062666894017</v>
       </c>
       <c r="F2">
-        <v>43.87069237713239</v>
+        <v>43.82212053948751</v>
       </c>
       <c r="G2">
-        <v>33.8550637065113</v>
+        <v>33.89546869344302</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>33.10111224565684</v>
       </c>
       <c r="I2">
-        <v>10.9086984863737</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>102.3630518660595</v>
+        <v>10.90406848894743</v>
       </c>
       <c r="K2">
-        <v>7.824289788510248</v>
+        <v>102.3528232828139</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>7.82463283886903</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.759919352007847</v>
+        <v>8.759270623251135</v>
       </c>
       <c r="D3">
-        <v>4.158386481792532</v>
+        <v>4.154905445942735</v>
       </c>
       <c r="E3">
-        <v>12.46010614941858</v>
+        <v>12.46044734044507</v>
       </c>
       <c r="F3">
-        <v>38.84915527337454</v>
+        <v>38.80773656249731</v>
       </c>
       <c r="G3">
-        <v>29.77955041968428</v>
+        <v>29.8162123865612</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>29.15208636651244</v>
       </c>
       <c r="I3">
-        <v>9.880774947955889</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>94.30957343997973</v>
+        <v>9.877010055514996</v>
       </c>
       <c r="K3">
-        <v>7.359750759163533</v>
+        <v>94.30254774823641</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>7.360248985357981</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.263000012176546</v>
+        <v>8.262634116928918</v>
       </c>
       <c r="D4">
-        <v>3.748362500948419</v>
+        <v>3.745690876280755</v>
       </c>
       <c r="E4">
-        <v>11.84139859589699</v>
+        <v>11.84191825311422</v>
       </c>
       <c r="F4">
-        <v>35.94822926001297</v>
+        <v>35.91057500917771</v>
       </c>
       <c r="G4">
-        <v>27.42176609849948</v>
+        <v>27.45600621827289</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>26.89056818991113</v>
       </c>
       <c r="I4">
-        <v>9.257722793715219</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>89.26943266770368</v>
+        <v>9.254401734214472</v>
       </c>
       <c r="K4">
-        <v>7.083792229643223</v>
+        <v>89.26396718155959</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>7.084349390489142</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.072370797263918</v>
+        <v>8.07206944834657</v>
       </c>
       <c r="D5">
-        <v>3.585427197137197</v>
+        <v>3.583069155877886</v>
       </c>
       <c r="E5">
-        <v>11.58991332264927</v>
+        <v>11.5904928418375</v>
       </c>
       <c r="F5">
-        <v>34.80170264308008</v>
+        <v>34.76547356435938</v>
       </c>
       <c r="G5">
-        <v>26.48885566487927</v>
+        <v>26.52209811493475</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>26.00195952919064</v>
       </c>
       <c r="I5">
-        <v>9.003972034431349</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>87.18280130397757</v>
+        <v>9.000817186923356</v>
       </c>
       <c r="K5">
-        <v>6.973026805962624</v>
+        <v>87.1779008007759</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>6.973601546486553</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.040702697795618</v>
+        <v>8.040411554187765</v>
       </c>
       <c r="D6">
-        <v>3.558579007867504</v>
+        <v>3.556272240101408</v>
       </c>
       <c r="E6">
-        <v>11.54816314564864</v>
+        <v>11.54875194656601</v>
       </c>
       <c r="F6">
-        <v>34.61324974815233</v>
+        <v>34.57725179250979</v>
       </c>
       <c r="G6">
-        <v>26.33544573769154</v>
+        <v>26.36852230896219</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>25.85622412734668</v>
       </c>
       <c r="I6">
-        <v>8.961801231662196</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>86.83413044600023</v>
+        <v>8.958673255469234</v>
       </c>
       <c r="K6">
-        <v>6.954722231141762</v>
+        <v>86.82932015644694</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>6.955299559833615</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.260429593181476</v>
+        <v>8.260064604655337</v>
       </c>
       <c r="D7">
-        <v>3.746150321840088</v>
+        <v>3.74348298337989</v>
       </c>
       <c r="E7">
-        <v>11.83800579084063</v>
+        <v>11.83852630185952</v>
       </c>
       <c r="F7">
-        <v>35.93263316295198</v>
+        <v>35.89499852374276</v>
       </c>
       <c r="G7">
-        <v>27.40908034354074</v>
+        <v>27.44330703155797</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>26.87845882941175</v>
       </c>
       <c r="I7">
-        <v>9.25430210222398</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>89.24143394392271</v>
+        <v>9.250983336239672</v>
       </c>
       <c r="K7">
-        <v>7.082292232158967</v>
+        <v>89.23597633218249</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>7.082849653422342</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.30486209542841</v>
+        <v>9.30396033551618</v>
       </c>
       <c r="D8">
-        <v>4.61512297457025</v>
+        <v>4.610700116380244</v>
       </c>
       <c r="E8">
-        <v>13.1261472423113</v>
+        <v>13.12623929783133</v>
       </c>
       <c r="F8">
-        <v>42.09381419987227</v>
+        <v>42.04787653641628</v>
       </c>
       <c r="G8">
-        <v>32.41353174988495</v>
+        <v>32.4526877099394</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>31.69956171338909</v>
       </c>
       <c r="I8">
-        <v>10.55124076750205</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>99.59977637996674</v>
+        <v>10.54693279600407</v>
       </c>
       <c r="K8">
-        <v>7.661714820175073</v>
+        <v>99.59076051980433</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>7.662120998965354</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.46769190933667</v>
+        <v>11.46502155472437</v>
       </c>
       <c r="D9">
-        <v>6.646579087502139</v>
+        <v>6.637157387406585</v>
       </c>
       <c r="E9">
-        <v>16.04840374627605</v>
+        <v>16.04630165301472</v>
       </c>
       <c r="F9">
-        <v>56.45297661274827</v>
+        <v>56.38115249924679</v>
       </c>
       <c r="G9">
-        <v>44.05781670431796</v>
+        <v>44.10350077041244</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>43.11558224053984</v>
       </c>
       <c r="I9">
-        <v>13.29937432746472</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>119.791884658808</v>
+        <v>13.29173686065269</v>
       </c>
       <c r="K9">
-        <v>9.074760807953975</v>
+        <v>119.769703050899</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>9.074111804187325</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.3950988214456</v>
+        <v>13.38837876382607</v>
       </c>
       <c r="D10">
-        <v>8.778411313617825</v>
+        <v>8.760626664319398</v>
       </c>
       <c r="E10">
-        <v>18.68096448575702</v>
+        <v>18.67369758727341</v>
       </c>
       <c r="F10">
-        <v>71.16920968080032</v>
+        <v>71.04950814332005</v>
       </c>
       <c r="G10">
-        <v>56.00499400371663</v>
+        <v>56.04021516244894</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>54.94751556512991</v>
       </c>
       <c r="I10">
-        <v>15.89367760192443</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>136.5162668600742</v>
+        <v>15.87919947195922</v>
       </c>
       <c r="K10">
-        <v>10.49088095063889</v>
+        <v>136.4658050631064</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>10.48755662623429</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.62637916460222</v>
+        <v>14.61266970522419</v>
       </c>
       <c r="D11">
-        <v>10.31764791848049</v>
+        <v>10.28772779283062</v>
       </c>
       <c r="E11">
-        <v>20.3553404855888</v>
+        <v>20.33881986870738</v>
       </c>
       <c r="F11">
-        <v>81.53969161350986</v>
+        <v>81.34586444436751</v>
       </c>
       <c r="G11">
-        <v>64.44233147321025</v>
+        <v>64.43722340621285</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>63.31102463889184</v>
       </c>
       <c r="I11">
-        <v>17.64384238087425</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>146.4001013518396</v>
+        <v>17.61799852723042</v>
       </c>
       <c r="K11">
-        <v>11.39183374862878</v>
+        <v>146.3028210189876</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>11.38358924132629</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.31236688886251</v>
+        <v>15.28904862785136</v>
       </c>
       <c r="D12">
-        <v>11.24074262829435</v>
+        <v>11.19530651627612</v>
       </c>
       <c r="E12">
-        <v>21.28716558364086</v>
+        <v>21.25771571147822</v>
       </c>
       <c r="F12">
-        <v>87.66088288254508</v>
+        <v>87.36943596228087</v>
       </c>
       <c r="G12">
-        <v>69.43063718284893</v>
+        <v>69.35762207945295</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>68.22158818891475</v>
       </c>
       <c r="I12">
-        <v>18.65764426444256</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>151.5698155512477</v>
+        <v>18.61632792899454</v>
       </c>
       <c r="K12">
-        <v>11.89365248092262</v>
+        <v>151.4095587814182</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>11.87846630297762</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.14070498527026</v>
+        <v>15.12061173768996</v>
       </c>
       <c r="D13">
-        <v>11.00515706846272</v>
+        <v>10.96485890182653</v>
       </c>
       <c r="E13">
-        <v>21.05397991936467</v>
+        <v>21.02888340617605</v>
       </c>
       <c r="F13">
-        <v>86.10545721547119</v>
+        <v>85.84651950003149</v>
       </c>
       <c r="G13">
-        <v>68.16248985187148</v>
+        <v>68.1130410211522</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>66.97893032551096</v>
       </c>
       <c r="I13">
-        <v>18.40106560391063</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>150.3014004547591</v>
+        <v>18.36493559660384</v>
       </c>
       <c r="K13">
-        <v>11.76802667477896</v>
+        <v>150.1621833261365</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>11.75518206082847</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.67467395743458</v>
+        <v>14.66050761535417</v>
       </c>
       <c r="D14">
-        <v>10.38105299553515</v>
+        <v>10.35037658331165</v>
       </c>
       <c r="E14">
-        <v>20.42094911646824</v>
+        <v>20.40381730258207</v>
       </c>
       <c r="F14">
-        <v>81.96244212937252</v>
+        <v>81.76390546832609</v>
       </c>
       <c r="G14">
-        <v>64.78664123142337</v>
+        <v>64.77850801947795</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>63.65142453981903</v>
       </c>
       <c r="I14">
-        <v>17.71423884349445</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>146.7725984483985</v>
+        <v>17.68765732648159</v>
       </c>
       <c r="K14">
-        <v>11.42715179342483</v>
+        <v>146.6722990015781</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>11.41858024121163</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.43226502743686</v>
+        <v>14.42018819397112</v>
       </c>
       <c r="D15">
-        <v>10.06516582315538</v>
+        <v>10.03797333837357</v>
       </c>
       <c r="E15">
-        <v>20.09160455797642</v>
+        <v>20.0772634488941</v>
       </c>
       <c r="F15">
-        <v>79.85285697598212</v>
+        <v>79.67595085315573</v>
       </c>
       <c r="G15">
-        <v>63.06877698070832</v>
+        <v>63.07420823409851</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>61.95187323920771</v>
       </c>
       <c r="I15">
-        <v>17.36230708835603</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>144.8905920450951</v>
+        <v>17.33910233056978</v>
       </c>
       <c r="K15">
-        <v>11.24987730533321</v>
+        <v>144.804130956508</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>11.24279758572732</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.32754401857356</v>
+        <v>13.32105273373507</v>
       </c>
       <c r="D16">
-        <v>8.698129696682352</v>
+        <v>8.680772961026896</v>
       </c>
       <c r="E16">
-        <v>18.58896680118945</v>
+        <v>18.58199792298181</v>
       </c>
       <c r="F16">
-        <v>70.62252121353794</v>
+        <v>70.50535913048085</v>
       </c>
       <c r="G16">
-        <v>55.56067014287098</v>
+        <v>55.59689897422279</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>54.50669747746796</v>
       </c>
       <c r="I16">
-        <v>15.79995505168852</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>135.9541088526474</v>
+        <v>15.78585402235434</v>
       </c>
       <c r="K16">
-        <v>10.44139082795806</v>
+        <v>135.9052099790823</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>10.43822330167765</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.77266944309345</v>
+        <v>12.76773850359339</v>
       </c>
       <c r="D17">
-        <v>8.054446203874013</v>
+        <v>8.040111322013017</v>
       </c>
       <c r="E17">
-        <v>17.83264749436936</v>
+        <v>17.82769618019596</v>
       </c>
       <c r="F17">
-        <v>66.21802712626723</v>
+        <v>66.11856785209889</v>
       </c>
       <c r="G17">
-        <v>51.98244291771083</v>
+        <v>52.02454285639598</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>50.95778301712402</v>
       </c>
       <c r="I17">
-        <v>15.03833167645187</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>131.2663272025019</v>
+        <v>15.026822614764</v>
       </c>
       <c r="K17">
-        <v>10.03454393539611</v>
+        <v>131.2281762524032</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>10.0324324091889</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.47699567374116</v>
+        <v>12.47271500962203</v>
       </c>
       <c r="D18">
-        <v>7.722668692502635</v>
+        <v>7.709662961397642</v>
       </c>
       <c r="E18">
-        <v>17.42909572691816</v>
+        <v>17.42497535309361</v>
       </c>
       <c r="F18">
-        <v>63.93297346594358</v>
+        <v>63.84115077737581</v>
       </c>
       <c r="G18">
-        <v>50.12708381226992</v>
+        <v>50.17097012675269</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>49.11897152025841</v>
       </c>
       <c r="I18">
-        <v>14.63817410714881</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>128.7195113050889</v>
+        <v>14.62775958000892</v>
       </c>
       <c r="K18">
-        <v>9.817465691400505</v>
+        <v>128.6858951079171</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>9.815785348016592</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.37990990126907</v>
+        <v>12.37582136212802</v>
       </c>
       <c r="D19">
-        <v>7.615394262896801</v>
+        <v>7.602791632889866</v>
       </c>
       <c r="E19">
-        <v>17.29650106892376</v>
+        <v>17.29262476640036</v>
       </c>
       <c r="F19">
-        <v>63.19198465821135</v>
+        <v>63.10245685723537</v>
       </c>
       <c r="G19">
-        <v>49.52557501608759</v>
+        <v>49.56989325003752</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>48.52311005935665</v>
       </c>
       <c r="I19">
-        <v>14.50760223989525</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>127.876192318135</v>
+        <v>14.49751335353078</v>
       </c>
       <c r="K19">
-        <v>9.746140479234404</v>
+        <v>127.8439236538497</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>9.744586223457558</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.82903319310406</v>
+        <v>12.82396585602306</v>
       </c>
       <c r="D20">
-        <v>8.11856784540265</v>
+        <v>8.103960252848999</v>
       </c>
       <c r="E20">
-        <v>17.90953200356147</v>
+        <v>17.90440554888006</v>
       </c>
       <c r="F20">
-        <v>66.6584887310969</v>
+        <v>66.55745024480439</v>
       </c>
       <c r="G20">
-        <v>52.34015550295481</v>
+        <v>52.38182395965928</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>51.31243569664128</v>
       </c>
       <c r="I20">
-        <v>15.115050210341</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>131.7480655425655</v>
+        <v>15.10331285385437</v>
       </c>
       <c r="K20">
-        <v>10.07590171384244</v>
+        <v>131.7089680786986</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>10.07369897648182</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.80060428960286</v>
+        <v>14.78513288605057</v>
       </c>
       <c r="D21">
-        <v>10.5474969559834</v>
+        <v>10.51467435040815</v>
       </c>
       <c r="E21">
-        <v>20.59201514951144</v>
+        <v>20.57313486880625</v>
       </c>
       <c r="F21">
-        <v>83.07056950324704</v>
+        <v>82.85863209260702</v>
       </c>
       <c r="G21">
-        <v>65.68929655890818</v>
+        <v>65.67236893925758</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>64.54311924264759</v>
       </c>
       <c r="I21">
-        <v>17.89847395134351</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>147.7380195423205</v>
+        <v>17.86978699043136</v>
       </c>
       <c r="K21">
-        <v>11.51924764049816</v>
+        <v>147.6291140133243</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>11.5097396792305</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.80060428960286</v>
+        <v>14.78513288605057</v>
       </c>
       <c r="D22">
-        <v>10.5474969559834</v>
+        <v>10.51467435040815</v>
       </c>
       <c r="E22">
-        <v>20.59201514951144</v>
+        <v>20.57313486880625</v>
       </c>
       <c r="F22">
-        <v>83.07056950324704</v>
+        <v>82.85863209260702</v>
       </c>
       <c r="G22">
-        <v>65.68929655890818</v>
+        <v>65.67236893925758</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>64.54311924264759</v>
       </c>
       <c r="I22">
-        <v>17.89847395134351</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>147.7380195423205</v>
+        <v>17.86978699043136</v>
       </c>
       <c r="K22">
-        <v>11.51924764049816</v>
+        <v>147.6291140133243</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>11.5097396792305</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.80060428960286</v>
+        <v>16.00002036670221</v>
       </c>
       <c r="D23">
-        <v>10.5474969559834</v>
+        <v>12.20162045900918</v>
       </c>
       <c r="E23">
-        <v>20.59201514951144</v>
+        <v>22.22424518523195</v>
       </c>
       <c r="F23">
-        <v>83.07056950324704</v>
+        <v>93.96860295680997</v>
       </c>
       <c r="G23">
-        <v>65.68929655890818</v>
+        <v>74.75529252731748</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>73.6147473531263</v>
       </c>
       <c r="I23">
-        <v>17.89847395134351</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>147.7380195423205</v>
+        <v>19.69972601558092</v>
       </c>
       <c r="K23">
-        <v>11.51924764049816</v>
+        <v>156.4788081075295</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.39968516768086</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.80060428960286</v>
+        <v>12.7984775256645</v>
       </c>
       <c r="D24">
-        <v>10.5474969559834</v>
+        <v>8.074982234073632</v>
       </c>
       <c r="E24">
-        <v>20.59201514951144</v>
+        <v>17.86963423946081</v>
       </c>
       <c r="F24">
-        <v>83.07056950324704</v>
+        <v>66.35830870799514</v>
       </c>
       <c r="G24">
-        <v>65.68929655890818</v>
+        <v>52.21970555760157</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>51.15150162042897</v>
       </c>
       <c r="I24">
-        <v>17.89847395134351</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>147.7380195423205</v>
+        <v>15.06862167056642</v>
       </c>
       <c r="K24">
-        <v>11.51924764049816</v>
+        <v>131.4911715645399</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>10.05499339594287</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>14.80060428960286</v>
+        <v>10.85431721620222</v>
       </c>
       <c r="D25">
-        <v>10.5474969559834</v>
+        <v>6.027841003692693</v>
       </c>
       <c r="E25">
-        <v>20.59201514951144</v>
+        <v>15.20822180583398</v>
       </c>
       <c r="F25">
-        <v>83.07056950324704</v>
+        <v>52.09873383396805</v>
       </c>
       <c r="G25">
-        <v>65.68929655890818</v>
+        <v>40.62257140390991</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>39.68553440635466</v>
       </c>
       <c r="I25">
-        <v>17.89847395134351</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>147.7380195423205</v>
+        <v>12.5006417163327</v>
       </c>
       <c r="K25">
-        <v>11.51924764049816</v>
+        <v>114.2049096171856</v>
       </c>
       <c r="L25">
+        <v>8.623267350141454</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.591681145769357</v>
+        <v>3.624735418054222</v>
       </c>
       <c r="D2">
-        <v>4.860107812271381</v>
+        <v>17.99871831395076</v>
       </c>
       <c r="E2">
-        <v>13.48062666894017</v>
+        <v>10.18456960603995</v>
       </c>
       <c r="F2">
-        <v>43.82212053948751</v>
+        <v>108.3662976272929</v>
       </c>
       <c r="G2">
-        <v>33.89546869344302</v>
+        <v>1.897101584056877</v>
       </c>
       <c r="H2">
-        <v>33.10111224565684</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.90406848894743</v>
+        <v>4.873840611728387</v>
       </c>
       <c r="K2">
-        <v>102.3528232828139</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.82463283886903</v>
+        <v>8.405363662682824</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>63.95496497158697</v>
+      </c>
+      <c r="N2">
+        <v>13.03084599527134</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.759270623251135</v>
+        <v>3.808900017205277</v>
       </c>
       <c r="D3">
-        <v>4.154905445942735</v>
+        <v>16.11116268189597</v>
       </c>
       <c r="E3">
-        <v>12.46044734044507</v>
+        <v>9.185826624387445</v>
       </c>
       <c r="F3">
-        <v>38.80773656249731</v>
+        <v>98.48449814225718</v>
       </c>
       <c r="G3">
-        <v>29.8162123865612</v>
+        <v>1.996813780224583</v>
       </c>
       <c r="H3">
-        <v>29.15208636651244</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.877010055514996</v>
+        <v>5.270758337369219</v>
       </c>
       <c r="K3">
-        <v>94.30254774823641</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.360248985357981</v>
+        <v>7.580991406001241</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>57.88191357550578</v>
+      </c>
+      <c r="N3">
+        <v>13.24827200169651</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.262634116928918</v>
+        <v>3.909971477667888</v>
       </c>
       <c r="D4">
-        <v>3.745690876280755</v>
+        <v>15.14879967221535</v>
       </c>
       <c r="E4">
-        <v>11.84191825311422</v>
+        <v>8.638192184791823</v>
       </c>
       <c r="F4">
-        <v>35.91057500917771</v>
+        <v>93.59390734783068</v>
       </c>
       <c r="G4">
-        <v>27.45600621827289</v>
+        <v>2.048174609076284</v>
       </c>
       <c r="H4">
-        <v>26.89056818991113</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.254401734214472</v>
+        <v>5.485745685574118</v>
       </c>
       <c r="K4">
-        <v>89.26396718155959</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.084349390489142</v>
+        <v>7.13007532660476</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>54.96598493375142</v>
+      </c>
+      <c r="N4">
+        <v>13.34872689671063</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.07206944834657</v>
+        <v>3.949537759516373</v>
       </c>
       <c r="D5">
-        <v>3.583069155877886</v>
+        <v>14.78286148639803</v>
       </c>
       <c r="E5">
-        <v>11.5904928418375</v>
+        <v>8.422836345862944</v>
       </c>
       <c r="F5">
-        <v>34.76547356435938</v>
+        <v>91.76986780707118</v>
       </c>
       <c r="G5">
-        <v>26.52209811493475</v>
+        <v>2.067761386395238</v>
       </c>
       <c r="H5">
-        <v>26.00195952919064</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.000817186923356</v>
+        <v>5.569416502466868</v>
       </c>
       <c r="K5">
-        <v>87.1779008007759</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.973601546486553</v>
+        <v>6.953007054048848</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>53.83143873845887</v>
+      </c>
+      <c r="N5">
+        <v>13.38574084641339</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.040411554187765</v>
+        <v>3.956034407949626</v>
       </c>
       <c r="D6">
-        <v>3.556272240101408</v>
+        <v>14.72335993147882</v>
       </c>
       <c r="E6">
-        <v>11.54875194656601</v>
+        <v>8.387402017110066</v>
       </c>
       <c r="F6">
-        <v>34.57725179250979</v>
+        <v>91.47534686172614</v>
       </c>
       <c r="G6">
-        <v>26.36852230896219</v>
+        <v>2.070951981495967</v>
       </c>
       <c r="H6">
-        <v>25.85622412734668</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.958673255469234</v>
+        <v>5.583129450501496</v>
       </c>
       <c r="K6">
-        <v>86.82932015644694</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.955299559833615</v>
+        <v>6.923887031302018</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>53.64553576592878</v>
+      </c>
+      <c r="N6">
+        <v>13.39172261250103</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.260064604655337</v>
+        <v>3.910510463632677</v>
       </c>
       <c r="D7">
-        <v>3.74348298337989</v>
+        <v>15.14377386902029</v>
       </c>
       <c r="E7">
-        <v>11.83852630185952</v>
+        <v>8.635263269947695</v>
       </c>
       <c r="F7">
-        <v>35.89499852374276</v>
+        <v>93.5687127444877</v>
       </c>
       <c r="G7">
-        <v>27.44330703155797</v>
+        <v>2.048443268171973</v>
       </c>
       <c r="H7">
-        <v>26.87845882941175</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.250983336239672</v>
+        <v>5.486887287696588</v>
       </c>
       <c r="K7">
-        <v>89.23597633218249</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>7.082849653422342</v>
+        <v>7.127666136480075</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>54.9505031957204</v>
+      </c>
+      <c r="N7">
+        <v>13.34923844947519</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.30396033551618</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D8">
-        <v>4.610700116380244</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E8">
-        <v>13.12623929783133</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F8">
-        <v>42.04787653641628</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G8">
-        <v>32.4526877099394</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H8">
-        <v>31.69956171338909</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.54693279600407</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K8">
-        <v>99.59076051980433</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.662120998965354</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N8">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.46502155472437</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D9">
-        <v>6.637157387406585</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E9">
-        <v>16.04630165301472</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F9">
-        <v>56.38115249924679</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G9">
-        <v>44.10350077041244</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H9">
-        <v>43.11558224053984</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.29173686065269</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K9">
-        <v>119.769703050899</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>9.074111804187325</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N9">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.38837876382607</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D10">
-        <v>8.760626664319398</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E10">
-        <v>18.67369758727341</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F10">
-        <v>71.04950814332005</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G10">
-        <v>56.04021516244894</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H10">
-        <v>54.94751556512991</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>15.87919947195922</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K10">
-        <v>136.4658050631064</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>10.48755662623429</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N10">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.61266970522419</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D11">
-        <v>10.28772779283062</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E11">
-        <v>20.33881986870738</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F11">
-        <v>81.34586444436751</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G11">
-        <v>64.43722340621285</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H11">
-        <v>63.31102463889184</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>17.61799852723042</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K11">
-        <v>146.3028210189876</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>11.38358924132629</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N11">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.28904862785136</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D12">
-        <v>11.19530651627612</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E12">
-        <v>21.25771571147822</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F12">
-        <v>87.36943596228087</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G12">
-        <v>69.35762207945295</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H12">
-        <v>68.22158818891475</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>18.61632792899454</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K12">
-        <v>151.4095587814182</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>11.87846630297762</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N12">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.12061173768996</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D13">
-        <v>10.96485890182653</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E13">
-        <v>21.02888340617605</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F13">
-        <v>85.84651950003149</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G13">
-        <v>68.1130410211522</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H13">
-        <v>66.97893032551096</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18.36493559660384</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K13">
-        <v>150.1621833261365</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>11.75518206082847</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N13">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.66050761535417</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D14">
-        <v>10.35037658331165</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E14">
-        <v>20.40381730258207</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F14">
-        <v>81.76390546832609</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G14">
-        <v>64.77850801947795</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H14">
-        <v>63.65142453981903</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>17.68765732648159</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K14">
-        <v>146.6722990015781</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>11.41858024121163</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N14">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.42018819397112</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D15">
-        <v>10.03797333837357</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E15">
-        <v>20.0772634488941</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F15">
-        <v>79.67595085315573</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G15">
-        <v>63.07420823409851</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H15">
-        <v>61.95187323920771</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>17.33910233056978</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K15">
-        <v>144.804130956508</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>11.24279758572732</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N15">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.32105273373507</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D16">
-        <v>8.680772961026896</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E16">
-        <v>18.58199792298181</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F16">
-        <v>70.50535913048085</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G16">
-        <v>55.59689897422279</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H16">
-        <v>54.50669747746796</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>15.78585402235434</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K16">
-        <v>135.9052099790823</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>10.43822330167765</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N16">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.76773850359339</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D17">
-        <v>8.040111322013017</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E17">
-        <v>17.82769618019596</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F17">
-        <v>66.11856785209889</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G17">
-        <v>52.02454285639598</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H17">
-        <v>50.95778301712402</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>15.026822614764</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K17">
-        <v>131.2281762524032</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>10.0324324091889</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N17">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.47271500962203</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D18">
-        <v>7.709662961397642</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E18">
-        <v>17.42497535309361</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F18">
-        <v>63.84115077737581</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G18">
-        <v>50.17097012675269</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H18">
-        <v>49.11897152025841</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>14.62775958000892</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K18">
-        <v>128.6858951079171</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>9.815785348016592</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N18">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.37582136212802</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D19">
-        <v>7.602791632889866</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E19">
-        <v>17.29262476640036</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F19">
-        <v>63.10245685723537</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G19">
-        <v>49.56989325003752</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H19">
-        <v>48.52311005935665</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>14.49751335353078</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K19">
-        <v>127.8439236538497</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>9.744586223457558</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N19">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.82396585602306</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D20">
-        <v>8.103960252848999</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E20">
-        <v>17.90440554888006</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F20">
-        <v>66.55745024480439</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G20">
-        <v>52.38182395965928</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H20">
-        <v>51.31243569664128</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>15.10331285385437</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K20">
-        <v>131.7089680786986</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>10.07369897648182</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N20">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.78513288605057</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D21">
-        <v>10.51467435040815</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E21">
-        <v>20.57313486880625</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F21">
-        <v>82.85863209260702</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G21">
-        <v>65.67236893925758</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H21">
-        <v>64.54311924264759</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>17.86978699043136</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K21">
-        <v>147.6291140133243</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>11.5097396792305</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N21">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.78513288605057</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D22">
-        <v>10.51467435040815</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E22">
-        <v>20.57313486880625</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F22">
-        <v>82.85863209260702</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G22">
-        <v>65.67236893925758</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H22">
-        <v>64.54311924264759</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>17.86978699043136</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K22">
-        <v>147.6291140133243</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>11.5097396792305</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N22">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>16.00002036670221</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D23">
-        <v>12.20162045900918</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E23">
-        <v>22.22424518523195</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F23">
-        <v>93.96860295680997</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G23">
-        <v>74.75529252731748</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H23">
-        <v>73.6147473531263</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>19.69972601558092</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K23">
-        <v>156.4788081075295</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>12.39968516768086</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N23">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.7984775256645</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D24">
-        <v>8.074982234073632</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E24">
-        <v>17.86963423946081</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F24">
-        <v>66.35830870799514</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G24">
-        <v>52.21970555760157</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H24">
-        <v>51.15150162042897</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>15.06862167056642</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K24">
-        <v>131.4911715645399</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>10.05499339594287</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N24">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.85431721620222</v>
+        <v>3.692001638716776</v>
       </c>
       <c r="D25">
-        <v>6.027841003692693</v>
+        <v>17.27543622252255</v>
       </c>
       <c r="E25">
-        <v>15.20822180583398</v>
+        <v>9.818450421574756</v>
       </c>
       <c r="F25">
-        <v>52.09873383396805</v>
+        <v>104.5508902281169</v>
       </c>
       <c r="G25">
-        <v>40.62257140390991</v>
+        <v>1.93458895007555</v>
       </c>
       <c r="H25">
-        <v>39.68553440635466</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.5006417163327</v>
+        <v>5.019670936288817</v>
       </c>
       <c r="K25">
-        <v>114.2049096171856</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>8.623267350141454</v>
+        <v>8.102903917256221</v>
       </c>
       <c r="M25">
+        <v>61.66440473307241</v>
+      </c>
+      <c r="N25">
+        <v>13.11683333348027</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.624735418054222</v>
+        <v>7.607488934356557</v>
       </c>
       <c r="D2">
-        <v>17.99871831395076</v>
+        <v>4.957900360382168</v>
       </c>
       <c r="E2">
-        <v>10.18456960603995</v>
+        <v>80.65438650262865</v>
       </c>
       <c r="F2">
-        <v>108.3662976272929</v>
+        <v>18.63838693456158</v>
       </c>
       <c r="G2">
-        <v>1.897101584056877</v>
+        <v>27.31430860029101</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.499442705677104</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.873840611728387</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.405363662682824</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>63.95496497158697</v>
+        <v>108.1837564448048</v>
       </c>
       <c r="N2">
-        <v>13.03084599527134</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14.68205648186122</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.808900017205277</v>
+        <v>7.034172677144634</v>
       </c>
       <c r="D3">
-        <v>16.11116268189597</v>
+        <v>4.56688653966006</v>
       </c>
       <c r="E3">
-        <v>9.185826624387445</v>
+        <v>72.38305133980565</v>
       </c>
       <c r="F3">
-        <v>98.48449814225718</v>
+        <v>16.2182202967873</v>
       </c>
       <c r="G3">
-        <v>1.996813780224583</v>
+        <v>23.32672508078064</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.528535708335995</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.270758337369219</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.580991406001241</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>57.88191357550578</v>
+        <v>97.96823880204587</v>
       </c>
       <c r="N3">
-        <v>13.24827200169651</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.60410708453114</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.909971477667888</v>
+        <v>6.671987000025519</v>
       </c>
       <c r="D4">
-        <v>15.14879967221535</v>
+        <v>4.337911585789018</v>
       </c>
       <c r="E4">
-        <v>8.638192184791823</v>
+        <v>67.68545279817734</v>
       </c>
       <c r="F4">
-        <v>93.59390734783068</v>
+        <v>14.85629033937197</v>
       </c>
       <c r="G4">
-        <v>2.048174609076284</v>
+        <v>21.10793838426429</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.993188430886996</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.485745685574118</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.13007532660476</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>54.96598493375142</v>
+        <v>92.02559740525714</v>
       </c>
       <c r="N4">
-        <v>13.34872689671063</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.44056022133825</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.949537759516373</v>
+        <v>6.521185006044862</v>
       </c>
       <c r="D5">
-        <v>14.78286148639803</v>
+        <v>4.245496071034106</v>
       </c>
       <c r="E5">
-        <v>8.422836345862944</v>
+        <v>65.81459043427698</v>
       </c>
       <c r="F5">
-        <v>91.76986780707118</v>
+        <v>14.31996281470642</v>
       </c>
       <c r="G5">
-        <v>2.067761386395238</v>
+        <v>20.23896296915841</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.784859717607902</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.569416502466868</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.953007054048848</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>53.83143873845887</v>
+        <v>89.63394789070909</v>
       </c>
       <c r="N5">
-        <v>13.38574084641339</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.98287292304066</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.956034407949626</v>
+        <v>6.495937515398137</v>
       </c>
       <c r="D6">
-        <v>14.72335993147882</v>
+        <v>4.230169335581961</v>
       </c>
       <c r="E6">
-        <v>8.387402017110066</v>
+        <v>65.50557602961356</v>
       </c>
       <c r="F6">
-        <v>91.47534686172614</v>
+        <v>14.23180124591405</v>
       </c>
       <c r="G6">
-        <v>2.070951981495967</v>
+        <v>20.09637821481373</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.750761498054831</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.583129450501496</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.923887031302018</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>53.64553576592878</v>
+        <v>89.23762784378684</v>
       </c>
       <c r="N6">
-        <v>13.39172261250103</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.90764735857035</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.910510463632677</v>
+        <v>6.669966845436274</v>
       </c>
       <c r="D7">
-        <v>15.14377386902029</v>
+        <v>4.336663305556542</v>
       </c>
       <c r="E7">
-        <v>8.635263269947695</v>
+        <v>67.66009278939038</v>
       </c>
       <c r="F7">
-        <v>93.5687127444877</v>
+        <v>14.84899279079157</v>
       </c>
       <c r="G7">
-        <v>2.048443268171973</v>
+        <v>21.09609660695806</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.990343807518346</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.486887287696588</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.127666136480075</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>54.9505031957204</v>
+        <v>91.99326906263042</v>
       </c>
       <c r="N7">
-        <v>13.34923844947519</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.43433161183509</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D8">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E8">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F8">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G8">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N8">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D9">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E9">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F9">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G9">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N9">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D10">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E10">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F10">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G10">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N10">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D11">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E11">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F11">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G11">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N11">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D12">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E12">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F12">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G12">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N12">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D13">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E13">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F13">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G13">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N13">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D14">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E14">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F14">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G14">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N14">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D15">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E15">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F15">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G15">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N15">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D16">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E16">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F16">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G16">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N16">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D17">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E17">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F17">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G17">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N17">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D18">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E18">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F18">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G18">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N18">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D19">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E19">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F19">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G19">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N19">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D20">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E20">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F20">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G20">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N20">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D21">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E21">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F21">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G21">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N21">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D22">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E22">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F22">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G22">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N22">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D23">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E23">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F23">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G23">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N23">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D24">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E24">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F24">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G24">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N24">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.692001638716776</v>
+        <v>7.411384254700319</v>
       </c>
       <c r="D25">
-        <v>17.27543622252255</v>
+        <v>4.819126289058936</v>
       </c>
       <c r="E25">
-        <v>9.818450421574756</v>
+        <v>77.67827313123024</v>
       </c>
       <c r="F25">
-        <v>104.5508902281169</v>
+        <v>17.76735893503704</v>
       </c>
       <c r="G25">
-        <v>1.93458895007555</v>
+        <v>25.87228735820726</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.147302128074175</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.019670936288817</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.102903917256221</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>61.66440473307241</v>
+        <v>104.5477498083591</v>
       </c>
       <c r="N25">
-        <v>13.11683333348027</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.93217055487509</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.607488934356557</v>
+        <v>4.927247083433903</v>
       </c>
       <c r="D2">
-        <v>4.957900360382168</v>
+        <v>3.775743729127368</v>
       </c>
       <c r="E2">
-        <v>80.65438650262865</v>
+        <v>40.45288384109088</v>
       </c>
       <c r="F2">
-        <v>18.63838693456158</v>
+        <v>14.97546744076235</v>
       </c>
       <c r="G2">
-        <v>27.31430860029101</v>
+        <v>13.46280818360098</v>
       </c>
       <c r="H2">
-        <v>6.499442705677104</v>
+        <v>10.01677876861353</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>108.1837564448048</v>
+        <v>57.83902694580253</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.68205648186122</v>
+        <v>13.17240368640964</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.034172677144634</v>
+        <v>4.750517232111898</v>
       </c>
       <c r="D3">
-        <v>4.56688653966006</v>
+        <v>3.661503447323658</v>
       </c>
       <c r="E3">
-        <v>72.38305133980565</v>
+        <v>37.73155792820933</v>
       </c>
       <c r="F3">
-        <v>16.2182202967873</v>
+        <v>15.12409468051381</v>
       </c>
       <c r="G3">
-        <v>23.32672508078064</v>
+        <v>13.55267791125082</v>
       </c>
       <c r="H3">
-        <v>5.528535708335995</v>
+        <v>10.16038209066586</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>97.96823880204587</v>
+        <v>54.25941303192177</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.60410708453114</v>
+        <v>13.40649720313919</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.671987000025519</v>
+        <v>4.640260160178539</v>
       </c>
       <c r="D4">
-        <v>4.337911585789018</v>
+        <v>3.58900865225798</v>
       </c>
       <c r="E4">
-        <v>67.68545279817734</v>
+        <v>35.96029272391751</v>
       </c>
       <c r="F4">
-        <v>14.85629033937197</v>
+        <v>15.23188147584457</v>
       </c>
       <c r="G4">
-        <v>21.10793838426429</v>
+        <v>13.64224180635605</v>
       </c>
       <c r="H4">
-        <v>4.993188430886996</v>
+        <v>10.25347861643226</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>92.02559740525714</v>
+        <v>51.93329055210783</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.44056022133825</v>
+        <v>13.56205856340795</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.521185006044862</v>
+        <v>4.594969629215675</v>
       </c>
       <c r="D5">
-        <v>4.245496071034106</v>
+        <v>3.55890075111013</v>
       </c>
       <c r="E5">
-        <v>65.81459043427698</v>
+        <v>35.21310432235119</v>
       </c>
       <c r="F5">
-        <v>14.31996281470642</v>
+        <v>15.27981277178268</v>
       </c>
       <c r="G5">
-        <v>20.23896296915841</v>
+        <v>13.68695014781933</v>
       </c>
       <c r="H5">
-        <v>4.784859717607902</v>
+        <v>10.29263916969765</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>89.63394789070909</v>
+        <v>50.95313951435505</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.98287292304066</v>
+        <v>13.62833172933574</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.495937515398137</v>
+        <v>4.587429866860584</v>
       </c>
       <c r="D6">
-        <v>4.230169335581961</v>
+        <v>3.553867989574305</v>
       </c>
       <c r="E6">
-        <v>65.50557602961356</v>
+        <v>35.0874970203289</v>
       </c>
       <c r="F6">
-        <v>14.23180124591405</v>
+        <v>15.28800942053293</v>
       </c>
       <c r="G6">
-        <v>20.09637821481373</v>
+        <v>13.69485660623713</v>
       </c>
       <c r="H6">
-        <v>4.750761498054831</v>
+        <v>10.29921519076207</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>89.23762784378684</v>
+        <v>50.7884402606981</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.90764735857035</v>
+        <v>13.63950770046731</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.669966845436274</v>
+        <v>4.639650704417154</v>
       </c>
       <c r="D7">
-        <v>4.336663305556542</v>
+        <v>3.5886048613432</v>
       </c>
       <c r="E7">
-        <v>67.66009278939038</v>
+        <v>35.95031884581027</v>
       </c>
       <c r="F7">
-        <v>14.84899279079157</v>
+        <v>15.23251186480113</v>
       </c>
       <c r="G7">
-        <v>21.09609660695806</v>
+        <v>13.64281210950797</v>
       </c>
       <c r="H7">
-        <v>4.990343807518346</v>
+        <v>10.25400181681712</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>91.99326906263042</v>
+        <v>51.9202023776633</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.43433161183509</v>
+        <v>13.56294080203689</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.411384254700319</v>
+        <v>4.866717782484991</v>
       </c>
       <c r="D8">
-        <v>4.819126289058936</v>
+        <v>3.736855987602195</v>
       </c>
       <c r="E8">
-        <v>77.67827313123024</v>
+        <v>39.53530928296156</v>
       </c>
       <c r="F8">
-        <v>17.76735893503704</v>
+        <v>15.02319363143655</v>
       </c>
       <c r="G8">
-        <v>25.87228735820726</v>
+        <v>13.48640607599351</v>
       </c>
       <c r="H8">
-        <v>6.147302128074175</v>
+        <v>10.06526194991403</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>104.5477498083591</v>
+        <v>56.63137824753908</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.93217055487509</v>
+        <v>13.25060652299585</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.411384254700319</v>
+        <v>5.295044451952883</v>
       </c>
       <c r="D9">
-        <v>4.819126289058936</v>
+        <v>4.007948417325459</v>
       </c>
       <c r="E9">
-        <v>77.67827313123024</v>
+        <v>45.77616986598547</v>
       </c>
       <c r="F9">
-        <v>17.76735893503704</v>
+        <v>14.75053714856692</v>
       </c>
       <c r="G9">
-        <v>25.87228735820726</v>
+        <v>13.47003255103211</v>
       </c>
       <c r="H9">
-        <v>6.147302128074175</v>
+        <v>9.734934612170903</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>104.5477498083591</v>
+        <v>64.85462759664961</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.93217055487509</v>
+        <v>12.73644523263456</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.411384254700319</v>
+        <v>5.59572208193655</v>
       </c>
       <c r="D10">
-        <v>4.819126289058936</v>
+        <v>4.194041492916691</v>
       </c>
       <c r="E10">
-        <v>77.67827313123024</v>
+        <v>49.8903129724787</v>
       </c>
       <c r="F10">
-        <v>17.76735893503704</v>
+        <v>14.64325077443523</v>
       </c>
       <c r="G10">
-        <v>25.87228735820726</v>
+        <v>13.65503134276623</v>
       </c>
       <c r="H10">
-        <v>6.147302128074175</v>
+        <v>9.517583551060333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>104.5477498083591</v>
+        <v>70.28269789865521</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.93217055487509</v>
+        <v>12.42527035288684</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.411384254700319</v>
+        <v>5.728821765908718</v>
       </c>
       <c r="D11">
-        <v>4.819126289058936</v>
+        <v>4.275675891399866</v>
       </c>
       <c r="E11">
-        <v>77.67827313123024</v>
+        <v>51.66196655539371</v>
       </c>
       <c r="F11">
-        <v>17.76735893503704</v>
+        <v>14.61651868239649</v>
       </c>
       <c r="G11">
-        <v>25.87228735820726</v>
+        <v>13.78491414824393</v>
       </c>
       <c r="H11">
-        <v>6.147302128074175</v>
+        <v>9.424473103467905</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>104.5477498083591</v>
+        <v>72.62056413221651</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.93217055487509</v>
+        <v>12.29974885781246</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.411384254700319</v>
+        <v>5.778648805955622</v>
       </c>
       <c r="D12">
-        <v>4.819126289058936</v>
+        <v>4.306142030171384</v>
       </c>
       <c r="E12">
-        <v>77.67827313123024</v>
+        <v>52.31867399223526</v>
       </c>
       <c r="F12">
-        <v>17.76735893503704</v>
+        <v>14.60971724218478</v>
       </c>
       <c r="G12">
-        <v>25.87228735820726</v>
+        <v>13.84081122365048</v>
       </c>
       <c r="H12">
-        <v>6.147302128074175</v>
+        <v>9.39006827578269</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>104.5477498083591</v>
+        <v>73.48712285430619</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.93217055487509</v>
+        <v>12.2546647024433</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.411384254700319</v>
+        <v>5.767943897807394</v>
       </c>
       <c r="D13">
-        <v>4.819126289058936</v>
+        <v>4.299600663874775</v>
       </c>
       <c r="E13">
-        <v>77.67827313123024</v>
+        <v>52.17786792005437</v>
       </c>
       <c r="F13">
-        <v>17.76735893503704</v>
+        <v>14.61103206017185</v>
       </c>
       <c r="G13">
-        <v>25.87228735820726</v>
+        <v>13.82847284385426</v>
       </c>
       <c r="H13">
-        <v>6.147302128074175</v>
+        <v>9.397439559676844</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>104.5477498083591</v>
+        <v>73.30132479105309</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.93217055487509</v>
+        <v>12.26426314382847</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.411384254700319</v>
+        <v>5.73293283009596</v>
       </c>
       <c r="D14">
-        <v>4.819126289058936</v>
+        <v>4.278191383472222</v>
       </c>
       <c r="E14">
-        <v>77.67827313123024</v>
+        <v>51.71627736709515</v>
       </c>
       <c r="F14">
-        <v>17.76735893503704</v>
+        <v>14.61589173786709</v>
       </c>
       <c r="G14">
-        <v>25.87228735820726</v>
+        <v>13.7893777763891</v>
       </c>
       <c r="H14">
-        <v>6.147302128074175</v>
+        <v>9.42162532799143</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>104.5477498083591</v>
+        <v>72.69223108714959</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.93217055487509</v>
+        <v>12.29598984755209</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.411384254700319</v>
+        <v>5.711411410469029</v>
       </c>
       <c r="D15">
-        <v>4.819126289058936</v>
+        <v>4.265019022935601</v>
       </c>
       <c r="E15">
-        <v>77.67827313123024</v>
+        <v>51.43169884217007</v>
       </c>
       <c r="F15">
-        <v>17.76735893503704</v>
+        <v>14.6193052357281</v>
       </c>
       <c r="G15">
-        <v>25.87228735820726</v>
+        <v>13.76630795241545</v>
       </c>
       <c r="H15">
-        <v>6.147302128074175</v>
+        <v>9.436551823147465</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>104.5477498083591</v>
+        <v>72.31670788981579</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.93217055487509</v>
+        <v>12.31574655758424</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.411384254700319</v>
+        <v>5.586945608787239</v>
       </c>
       <c r="D16">
-        <v>4.819126289058936</v>
+        <v>4.188644579936445</v>
       </c>
       <c r="E16">
-        <v>77.67827313123024</v>
+        <v>49.77253685757127</v>
       </c>
       <c r="F16">
-        <v>17.76735893503704</v>
+        <v>14.64545469026873</v>
       </c>
       <c r="G16">
-        <v>25.87228735820726</v>
+        <v>13.64747688454793</v>
       </c>
       <c r="H16">
-        <v>6.147302128074175</v>
+        <v>9.523786628112106</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>104.5477498083591</v>
+        <v>70.12728163105348</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.93217055487509</v>
+        <v>12.43380810536653</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.411384254700319</v>
+        <v>5.509612899723999</v>
       </c>
       <c r="D17">
-        <v>4.819126289058936</v>
+        <v>4.14100801933536</v>
       </c>
       <c r="E17">
-        <v>77.67827313123024</v>
+        <v>48.72924001855102</v>
       </c>
       <c r="F17">
-        <v>17.76735893503704</v>
+        <v>14.66725681720675</v>
       </c>
       <c r="G17">
-        <v>25.87228735820726</v>
+        <v>13.58641215692899</v>
       </c>
       <c r="H17">
-        <v>6.147302128074175</v>
+        <v>9.578795867662611</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>104.5477498083591</v>
+        <v>68.75059068733704</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.93217055487509</v>
+        <v>12.51044036807722</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.411384254700319</v>
+        <v>5.464789130249715</v>
       </c>
       <c r="D18">
-        <v>4.819126289058936</v>
+        <v>4.113325064446339</v>
       </c>
       <c r="E18">
-        <v>77.67827313123024</v>
+        <v>48.11974967128414</v>
       </c>
       <c r="F18">
-        <v>17.76735893503704</v>
+        <v>14.68186597927896</v>
       </c>
       <c r="G18">
-        <v>25.87228735820726</v>
+        <v>13.55558991630652</v>
       </c>
       <c r="H18">
-        <v>6.147302128074175</v>
+        <v>9.610976589712186</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>104.5477498083591</v>
+        <v>67.9463770181391</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.93217055487509</v>
+        <v>12.55601732335547</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.411384254700319</v>
+        <v>5.44955497273042</v>
       </c>
       <c r="D19">
-        <v>4.819126289058936</v>
+        <v>4.103903795292363</v>
       </c>
       <c r="E19">
-        <v>77.67827313123024</v>
+        <v>47.91176437889001</v>
       </c>
       <c r="F19">
-        <v>17.76735893503704</v>
+        <v>14.68716317487092</v>
       </c>
       <c r="G19">
-        <v>25.87228735820726</v>
+        <v>13.54588718514399</v>
       </c>
       <c r="H19">
-        <v>6.147302128074175</v>
+        <v>9.621964587878194</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>104.5477498083591</v>
+        <v>67.67195387276168</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.93217055487509</v>
+        <v>12.57170233570131</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.411384254700319</v>
+        <v>5.517881055355305</v>
       </c>
       <c r="D20">
-        <v>4.819126289058936</v>
+        <v>4.146108469856508</v>
       </c>
       <c r="E20">
-        <v>77.67827313123024</v>
+        <v>48.8412736988415</v>
       </c>
       <c r="F20">
-        <v>17.76735893503704</v>
+        <v>14.66472070554666</v>
       </c>
       <c r="G20">
-        <v>25.87228735820726</v>
+        <v>13.59246626120456</v>
       </c>
       <c r="H20">
-        <v>6.147302128074175</v>
+        <v>9.572883886832349</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>104.5477498083591</v>
+        <v>68.898421753135</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.93217055487509</v>
+        <v>12.50212647198114</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.411384254700319</v>
+        <v>5.743232368273839</v>
       </c>
       <c r="D21">
-        <v>4.819126289058936</v>
+        <v>4.284492031256903</v>
       </c>
       <c r="E21">
-        <v>77.67827313123024</v>
+        <v>51.85224102274366</v>
       </c>
       <c r="F21">
-        <v>17.76735893503704</v>
+        <v>14.61437304988886</v>
       </c>
       <c r="G21">
-        <v>25.87228735820726</v>
+        <v>13.80067803502692</v>
       </c>
       <c r="H21">
-        <v>6.147302128074175</v>
+        <v>9.414497989792556</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>104.5477498083591</v>
+        <v>72.87164397591621</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.93217055487509</v>
+        <v>12.28660332758053</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.411384254700319</v>
+        <v>5.887144185041046</v>
       </c>
       <c r="D22">
-        <v>4.819126289058936</v>
+        <v>4.372323609465719</v>
       </c>
       <c r="E22">
-        <v>77.67827313123024</v>
+        <v>53.7375241598664</v>
       </c>
       <c r="F22">
-        <v>17.76735893503704</v>
+        <v>14.60089090269635</v>
       </c>
       <c r="G22">
-        <v>25.87228735820726</v>
+        <v>13.97589584786442</v>
       </c>
       <c r="H22">
-        <v>6.147302128074175</v>
+        <v>9.315975208509265</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>104.5477498083591</v>
+        <v>75.35922354516654</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.93217055487509</v>
+        <v>12.16008795330636</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.411384254700319</v>
+        <v>5.810657568247867</v>
       </c>
       <c r="D23">
-        <v>4.819126289058936</v>
+        <v>4.325688718631306</v>
       </c>
       <c r="E23">
-        <v>77.67827313123024</v>
+        <v>52.73880456633145</v>
       </c>
       <c r="F23">
-        <v>17.76735893503704</v>
+        <v>14.60626254466199</v>
       </c>
       <c r="G23">
-        <v>25.87228735820726</v>
+        <v>13.87877200103085</v>
       </c>
       <c r="H23">
-        <v>6.147302128074175</v>
+        <v>9.368093011105342</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>104.5477498083591</v>
+        <v>74.04148775961271</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.93217055487509</v>
+        <v>12.22625011161201</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.411384254700319</v>
+        <v>5.514144152954719</v>
       </c>
       <c r="D24">
-        <v>4.819126289058936</v>
+        <v>4.143803477352613</v>
       </c>
       <c r="E24">
-        <v>77.67827313123024</v>
+        <v>48.79065345282251</v>
       </c>
       <c r="F24">
-        <v>17.76735893503704</v>
+        <v>14.66586083025775</v>
       </c>
       <c r="G24">
-        <v>25.87228735820726</v>
+        <v>13.58971586624328</v>
       </c>
       <c r="H24">
-        <v>6.147302128074175</v>
+        <v>9.575554965997005</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>104.5477498083591</v>
+        <v>68.83162700858357</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.93217055487509</v>
+        <v>12.50588046049002</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.411384254700319</v>
+        <v>5.181391830316413</v>
       </c>
       <c r="D25">
-        <v>4.819126289058936</v>
+        <v>3.936836849150694</v>
       </c>
       <c r="E25">
-        <v>77.67827313123024</v>
+        <v>44.17132509431259</v>
       </c>
       <c r="F25">
-        <v>17.76735893503704</v>
+        <v>14.80860582717442</v>
       </c>
       <c r="G25">
-        <v>25.87228735820726</v>
+        <v>13.44108990975413</v>
       </c>
       <c r="H25">
-        <v>6.147302128074175</v>
+        <v>9.819930891755057</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>104.5477498083591</v>
+        <v>62.73827142210031</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.93217055487509</v>
+        <v>12.86435595207713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.927247083433903</v>
+        <v>7.607488934356582</v>
       </c>
       <c r="D2">
-        <v>3.775743729127368</v>
+        <v>4.957900360382266</v>
       </c>
       <c r="E2">
-        <v>40.45288384109088</v>
+        <v>80.65438650262864</v>
       </c>
       <c r="F2">
-        <v>14.97546744076235</v>
+        <v>18.63838693456168</v>
       </c>
       <c r="G2">
-        <v>13.46280818360098</v>
+        <v>27.31430860029121</v>
       </c>
       <c r="H2">
-        <v>10.01677876861353</v>
+        <v>6.499442705677136</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>57.83902694580253</v>
+        <v>108.1837564448047</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.17240368640964</v>
+        <v>14.68205648186138</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.750517232111898</v>
+        <v>7.034172677144689</v>
       </c>
       <c r="D3">
-        <v>3.661503447323658</v>
+        <v>4.566886539659996</v>
       </c>
       <c r="E3">
-        <v>37.73155792820933</v>
+        <v>72.38305133980568</v>
       </c>
       <c r="F3">
-        <v>15.12409468051381</v>
+        <v>16.21822029678744</v>
       </c>
       <c r="G3">
-        <v>13.55267791125082</v>
+        <v>23.32672508078073</v>
       </c>
       <c r="H3">
-        <v>10.16038209066586</v>
+        <v>5.528535708336034</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>54.25941303192177</v>
+        <v>97.96823880204599</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.40649720313919</v>
+        <v>12.60410708453121</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.640260160178539</v>
+        <v>6.671987000025534</v>
       </c>
       <c r="D4">
-        <v>3.58900865225798</v>
+        <v>4.337911585789005</v>
       </c>
       <c r="E4">
-        <v>35.96029272391751</v>
+        <v>67.68545279817755</v>
       </c>
       <c r="F4">
-        <v>15.23188147584457</v>
+        <v>14.85629033937211</v>
       </c>
       <c r="G4">
-        <v>13.64224180635605</v>
+        <v>21.10793838426447</v>
       </c>
       <c r="H4">
-        <v>10.25347861643226</v>
+        <v>4.993188430887062</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>51.93329055210783</v>
+        <v>92.02559740525732</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.56205856340795</v>
+        <v>11.44056022133837</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.594969629215675</v>
+        <v>6.521185006044824</v>
       </c>
       <c r="D5">
-        <v>3.55890075111013</v>
+        <v>4.245496071034061</v>
       </c>
       <c r="E5">
-        <v>35.21310432235119</v>
+        <v>65.81459043427712</v>
       </c>
       <c r="F5">
-        <v>15.27981277178268</v>
+        <v>14.31996281470647</v>
       </c>
       <c r="G5">
-        <v>13.68695014781933</v>
+        <v>20.23896296915854</v>
       </c>
       <c r="H5">
-        <v>10.29263916969765</v>
+        <v>4.784859717607922</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>50.95313951435505</v>
+        <v>89.63394789070918</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.62833172933574</v>
+        <v>10.98287292304078</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.587429866860584</v>
+        <v>6.495937515398142</v>
       </c>
       <c r="D6">
-        <v>3.553867989574305</v>
+        <v>4.230169335581873</v>
       </c>
       <c r="E6">
-        <v>35.0874970203289</v>
+        <v>65.50557602961375</v>
       </c>
       <c r="F6">
-        <v>15.28800942053293</v>
+        <v>14.23180124591399</v>
       </c>
       <c r="G6">
-        <v>13.69485660623713</v>
+        <v>20.09637821481361</v>
       </c>
       <c r="H6">
-        <v>10.29921519076207</v>
+        <v>4.750761498054783</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>50.7884402606981</v>
+        <v>89.23762784378695</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.63950770046731</v>
+        <v>10.90764735857026</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.639650704417154</v>
+        <v>6.669966845436274</v>
       </c>
       <c r="D7">
-        <v>3.5886048613432</v>
+        <v>4.336663305556472</v>
       </c>
       <c r="E7">
-        <v>35.95031884581027</v>
+        <v>67.66009278939045</v>
       </c>
       <c r="F7">
-        <v>15.23251186480113</v>
+        <v>14.84899279079162</v>
       </c>
       <c r="G7">
-        <v>13.64281210950797</v>
+        <v>21.09609660695808</v>
       </c>
       <c r="H7">
-        <v>10.25400181681712</v>
+        <v>4.990343807518287</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>51.9202023776633</v>
+        <v>91.99326906263047</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.56294080203689</v>
+        <v>11.43433161183509</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.866717782484991</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D8">
-        <v>3.736855987602195</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E8">
-        <v>39.53530928296156</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F8">
-        <v>15.02319363143655</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G8">
-        <v>13.48640607599351</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H8">
-        <v>10.06526194991403</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>56.63137824753908</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.25060652299585</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.295044451952883</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D9">
-        <v>4.007948417325459</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E9">
-        <v>45.77616986598547</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F9">
-        <v>14.75053714856692</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G9">
-        <v>13.47003255103211</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H9">
-        <v>9.734934612170903</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>64.85462759664961</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.73644523263456</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.59572208193655</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D10">
-        <v>4.194041492916691</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E10">
-        <v>49.8903129724787</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F10">
-        <v>14.64325077443523</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G10">
-        <v>13.65503134276623</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H10">
-        <v>9.517583551060333</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>70.28269789865521</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.42527035288684</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.728821765908718</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D11">
-        <v>4.275675891399866</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E11">
-        <v>51.66196655539371</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F11">
-        <v>14.61651868239649</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G11">
-        <v>13.78491414824393</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H11">
-        <v>9.424473103467905</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>72.62056413221651</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.29974885781246</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.778648805955622</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D12">
-        <v>4.306142030171384</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E12">
-        <v>52.31867399223526</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F12">
-        <v>14.60971724218478</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G12">
-        <v>13.84081122365048</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H12">
-        <v>9.39006827578269</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>73.48712285430619</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.2546647024433</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.767943897807394</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D13">
-        <v>4.299600663874775</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E13">
-        <v>52.17786792005437</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F13">
-        <v>14.61103206017185</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G13">
-        <v>13.82847284385426</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H13">
-        <v>9.397439559676844</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>73.30132479105309</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.26426314382847</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.73293283009596</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D14">
-        <v>4.278191383472222</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E14">
-        <v>51.71627736709515</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F14">
-        <v>14.61589173786709</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G14">
-        <v>13.7893777763891</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H14">
-        <v>9.42162532799143</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>72.69223108714959</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.29598984755209</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.711411410469029</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D15">
-        <v>4.265019022935601</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E15">
-        <v>51.43169884217007</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F15">
-        <v>14.6193052357281</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G15">
-        <v>13.76630795241545</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H15">
-        <v>9.436551823147465</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>72.31670788981579</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.31574655758424</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.586945608787239</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D16">
-        <v>4.188644579936445</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E16">
-        <v>49.77253685757127</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F16">
-        <v>14.64545469026873</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G16">
-        <v>13.64747688454793</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H16">
-        <v>9.523786628112106</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>70.12728163105348</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.43380810536653</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.509612899723999</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D17">
-        <v>4.14100801933536</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E17">
-        <v>48.72924001855102</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F17">
-        <v>14.66725681720675</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G17">
-        <v>13.58641215692899</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H17">
-        <v>9.578795867662611</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>68.75059068733704</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.51044036807722</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.464789130249715</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D18">
-        <v>4.113325064446339</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E18">
-        <v>48.11974967128414</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F18">
-        <v>14.68186597927896</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G18">
-        <v>13.55558991630652</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H18">
-        <v>9.610976589712186</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>67.9463770181391</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.55601732335547</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.44955497273042</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D19">
-        <v>4.103903795292363</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E19">
-        <v>47.91176437889001</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F19">
-        <v>14.68716317487092</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G19">
-        <v>13.54588718514399</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H19">
-        <v>9.621964587878194</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>67.67195387276168</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.57170233570131</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.517881055355305</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D20">
-        <v>4.146108469856508</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E20">
-        <v>48.8412736988415</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F20">
-        <v>14.66472070554666</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G20">
-        <v>13.59246626120456</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H20">
-        <v>9.572883886832349</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>68.898421753135</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.50212647198114</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.743232368273839</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D21">
-        <v>4.284492031256903</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E21">
-        <v>51.85224102274366</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F21">
-        <v>14.61437304988886</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G21">
-        <v>13.80067803502692</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H21">
-        <v>9.414497989792556</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>72.87164397591621</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.28660332758053</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.887144185041046</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D22">
-        <v>4.372323609465719</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E22">
-        <v>53.7375241598664</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F22">
-        <v>14.60089090269635</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G22">
-        <v>13.97589584786442</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H22">
-        <v>9.315975208509265</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>75.35922354516654</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.16008795330636</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.810657568247867</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D23">
-        <v>4.325688718631306</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E23">
-        <v>52.73880456633145</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F23">
-        <v>14.60626254466199</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G23">
-        <v>13.87877200103085</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H23">
-        <v>9.368093011105342</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>74.04148775961271</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.22625011161201</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.514144152954719</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D24">
-        <v>4.143803477352613</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E24">
-        <v>48.79065345282251</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F24">
-        <v>14.66586083025775</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G24">
-        <v>13.58971586624328</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H24">
-        <v>9.575554965997005</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>68.83162700858357</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.50588046049002</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.181391830316413</v>
+        <v>7.411384254700414</v>
       </c>
       <c r="D25">
-        <v>3.936836849150694</v>
+        <v>4.819126289058849</v>
       </c>
       <c r="E25">
-        <v>44.17132509431259</v>
+        <v>77.67827313123043</v>
       </c>
       <c r="F25">
-        <v>14.80860582717442</v>
+        <v>17.76735893503709</v>
       </c>
       <c r="G25">
-        <v>13.44108990975413</v>
+        <v>25.87228735820728</v>
       </c>
       <c r="H25">
-        <v>9.819930891755057</v>
+        <v>6.147302128074181</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>62.73827142210031</v>
+        <v>104.5477498083593</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.86435595207713</v>
+        <v>13.93217055487508</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.607488934356582</v>
+        <v>5.961040068681755</v>
       </c>
       <c r="D2">
-        <v>4.957900360382266</v>
+        <v>4.166094805390729</v>
       </c>
       <c r="E2">
-        <v>80.65438650262864</v>
+        <v>7.13132070095314</v>
       </c>
       <c r="F2">
-        <v>18.63838693456168</v>
+        <v>41.81005557986012</v>
       </c>
       <c r="G2">
-        <v>27.31430860029121</v>
+        <v>62.49804409057026</v>
       </c>
       <c r="H2">
-        <v>6.499442705677136</v>
+        <v>1.691065060488529</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.814343253925456</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>17.3275070842131</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>31.1880047938817</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.98141681061978</v>
       </c>
       <c r="M2">
-        <v>108.1837564448047</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.279037588992135</v>
       </c>
       <c r="O2">
-        <v>14.68205648186138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>34.74625284889289</v>
+      </c>
+      <c r="P2">
+        <v>18.64979982874199</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.034172677144689</v>
+        <v>5.702004039652557</v>
       </c>
       <c r="D3">
-        <v>4.566886539659996</v>
+        <v>4.040557483644096</v>
       </c>
       <c r="E3">
-        <v>72.38305133980568</v>
+        <v>6.993063887583403</v>
       </c>
       <c r="F3">
-        <v>16.21822029678744</v>
+        <v>39.87106734928592</v>
       </c>
       <c r="G3">
-        <v>23.32672508078073</v>
+        <v>59.10889856631728</v>
       </c>
       <c r="H3">
-        <v>5.528535708336034</v>
+        <v>2.069153943694409</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.48292637129582</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>16.66834634966809</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>29.8186221995225</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.914154648992954</v>
       </c>
       <c r="M3">
-        <v>97.96823880204599</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.264904500540054</v>
       </c>
       <c r="O3">
-        <v>12.60410708453121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>32.63896629427595</v>
+      </c>
+      <c r="P3">
+        <v>17.93445925357246</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.671987000025534</v>
+        <v>5.539346699052325</v>
       </c>
       <c r="D4">
-        <v>4.337911585789005</v>
+        <v>3.961359294878216</v>
       </c>
       <c r="E4">
-        <v>67.68545279817755</v>
+        <v>6.905680291456802</v>
       </c>
       <c r="F4">
-        <v>14.85629033937211</v>
+        <v>38.64357391629167</v>
       </c>
       <c r="G4">
-        <v>21.10793838426447</v>
+        <v>56.94424355202575</v>
       </c>
       <c r="H4">
-        <v>4.993188430887062</v>
+        <v>2.307974075782665</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.678066380179063</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>16.25462115970855</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>28.95098609891127</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.871405991421538</v>
       </c>
       <c r="M4">
-        <v>92.02559740525732</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.255761538819917</v>
       </c>
       <c r="O4">
-        <v>11.44056022133837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>31.26951040357743</v>
+      </c>
+      <c r="P4">
+        <v>17.48313148845767</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.521185006044824</v>
+        <v>5.472859136605165</v>
       </c>
       <c r="D5">
-        <v>4.245496071034061</v>
+        <v>3.927124115299249</v>
       </c>
       <c r="E5">
-        <v>65.81459043427712</v>
+        <v>6.869107105351284</v>
       </c>
       <c r="F5">
-        <v>14.31996281470647</v>
+        <v>38.11838792867525</v>
       </c>
       <c r="G5">
-        <v>20.23896296915854</v>
+        <v>56.01307206001393</v>
       </c>
       <c r="H5">
-        <v>4.784859717607922</v>
+        <v>2.407947854792135</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.772671406730085</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>16.07783789214757</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>28.57620792485685</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.853284712009361</v>
       </c>
       <c r="M5">
-        <v>89.63394789070918</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.251453091895713</v>
       </c>
       <c r="O5">
-        <v>10.98287292304078</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>30.6844527504889</v>
+      </c>
+      <c r="P5">
+        <v>17.29799137146318</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.495937515398142</v>
+        <v>5.462711956053075</v>
       </c>
       <c r="D6">
-        <v>4.230169335581873</v>
+        <v>3.919641926977212</v>
       </c>
       <c r="E6">
-        <v>65.50557602961375</v>
+        <v>6.862607886542106</v>
       </c>
       <c r="F6">
-        <v>14.23180124591399</v>
+        <v>38.01089351673335</v>
       </c>
       <c r="G6">
-        <v>20.09637821481361</v>
+        <v>55.82218046335433</v>
       </c>
       <c r="H6">
-        <v>4.750761498054783</v>
+        <v>2.425777967961242</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.79313886581938</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>16.04090481930578</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>28.49549720415283</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.849860701578541</v>
       </c>
       <c r="M6">
-        <v>89.23762784378695</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.25016655416009</v>
       </c>
       <c r="O6">
-        <v>10.90764735857026</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>30.5762419742742</v>
+      </c>
+      <c r="P6">
+        <v>17.26902177740131</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.669966845436274</v>
+        <v>5.540982007362793</v>
       </c>
       <c r="D7">
-        <v>4.336663305556472</v>
+        <v>3.956084028790173</v>
       </c>
       <c r="E7">
-        <v>67.66009278939045</v>
+        <v>6.904145218870321</v>
       </c>
       <c r="F7">
-        <v>14.84899279079162</v>
+        <v>38.58329918754668</v>
       </c>
       <c r="G7">
-        <v>21.09609660695808</v>
+        <v>56.83768009959647</v>
       </c>
       <c r="H7">
-        <v>4.990343807518287</v>
+        <v>2.312364963816669</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.691845284650557</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>16.23210418959635</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>28.89717282440206</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.870107345512403</v>
       </c>
       <c r="M7">
-        <v>91.99326906263047</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.254140380921496</v>
       </c>
       <c r="O7">
-        <v>11.43433161183509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>31.23516435078803</v>
+      </c>
+      <c r="P7">
+        <v>17.48588435849003</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.411384254700414</v>
+        <v>5.875600201214186</v>
       </c>
       <c r="D8">
-        <v>4.819126289058849</v>
+        <v>4.116971231044904</v>
       </c>
       <c r="E8">
-        <v>77.67827313123043</v>
+        <v>7.082820551315545</v>
       </c>
       <c r="F8">
-        <v>17.76735893503709</v>
+        <v>41.08243001152503</v>
       </c>
       <c r="G8">
-        <v>25.87228735820728</v>
+        <v>61.22995697654291</v>
       </c>
       <c r="H8">
-        <v>6.147302128074181</v>
+        <v>1.824039656083602</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.701349194708686</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>17.07657840483661</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>30.65999928954239</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.957175666271123</v>
       </c>
       <c r="M8">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.272122659584457</v>
       </c>
       <c r="O8">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>34.00273154118678</v>
+      </c>
+      <c r="P8">
+        <v>18.41251337481036</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.411384254700414</v>
+        <v>6.501362410653415</v>
       </c>
       <c r="D9">
-        <v>4.819126289058849</v>
+        <v>4.423550079229447</v>
       </c>
       <c r="E9">
-        <v>77.67827313123043</v>
+        <v>7.416217595539488</v>
       </c>
       <c r="F9">
-        <v>17.76735893503709</v>
+        <v>45.76212937471762</v>
       </c>
       <c r="G9">
-        <v>25.87228735820728</v>
+        <v>69.3126406328869</v>
       </c>
       <c r="H9">
-        <v>6.147302128074181</v>
+        <v>2.194065422344372</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.498788737879945</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>18.68898005120224</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>33.9739138832643</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.118939743031286</v>
       </c>
       <c r="M9">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.306695951561519</v>
       </c>
       <c r="O9">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>38.86973291808814</v>
+      </c>
+      <c r="P9">
+        <v>20.11536227430918</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.411384254700414</v>
+        <v>6.947003734238903</v>
       </c>
       <c r="D10">
-        <v>4.819126289058849</v>
+        <v>4.648052293714972</v>
       </c>
       <c r="E10">
-        <v>77.67827313123043</v>
+        <v>7.671834938931044</v>
       </c>
       <c r="F10">
-        <v>17.76735893503709</v>
+        <v>48.74159044922662</v>
       </c>
       <c r="G10">
-        <v>25.87228735820728</v>
+        <v>74.43243843060783</v>
       </c>
       <c r="H10">
-        <v>6.147302128074181</v>
+        <v>2.804069774599234</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.049758056420454</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>19.73222536572788</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>36.07547986343118</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.226614489764838</v>
       </c>
       <c r="M10">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.342997320094211</v>
       </c>
       <c r="O10">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>41.92870611368465</v>
+      </c>
+      <c r="P10">
+        <v>21.32426722493601</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.411384254700414</v>
+        <v>7.138167375604029</v>
       </c>
       <c r="D11">
-        <v>4.819126289058849</v>
+        <v>4.850274303031314</v>
       </c>
       <c r="E11">
-        <v>77.67827313123043</v>
+        <v>8.028872716510525</v>
       </c>
       <c r="F11">
-        <v>17.76735893503709</v>
+        <v>47.99363138693423</v>
       </c>
       <c r="G11">
-        <v>25.87228735820728</v>
+        <v>73.59269972311667</v>
       </c>
       <c r="H11">
-        <v>6.147302128074181</v>
+        <v>3.554927392188049</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.190220766831747</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>19.48890890874219</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>35.52582707614946</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.266254889613865</v>
       </c>
       <c r="M11">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.519764182842007</v>
       </c>
       <c r="O11">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>42.0352016271448</v>
+      </c>
+      <c r="P11">
+        <v>22.12457280637419</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.411384254700414</v>
+        <v>7.213816489427807</v>
       </c>
       <c r="D12">
-        <v>4.819126289058849</v>
+        <v>4.983815927076649</v>
       </c>
       <c r="E12">
-        <v>77.67827313123043</v>
+        <v>8.358389060392943</v>
       </c>
       <c r="F12">
-        <v>17.76735893503709</v>
+        <v>46.78647075590141</v>
       </c>
       <c r="G12">
-        <v>25.87228735820728</v>
+        <v>71.91027505476217</v>
       </c>
       <c r="H12">
-        <v>6.147302128074181</v>
+        <v>4.641358025325451</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.199671149367166</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>19.0831748455373</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>34.6715643115493</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.329121247023731</v>
       </c>
       <c r="M12">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.722912888675419</v>
       </c>
       <c r="O12">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>41.5193805908261</v>
+      </c>
+      <c r="P12">
+        <v>22.54751767873798</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.411384254700414</v>
+        <v>7.209083298536968</v>
       </c>
       <c r="D13">
-        <v>4.819126289058849</v>
+        <v>5.06705115936282</v>
       </c>
       <c r="E13">
-        <v>77.67827313123043</v>
+        <v>8.677568447451302</v>
       </c>
       <c r="F13">
-        <v>17.76735893503709</v>
+        <v>45.05155686085895</v>
       </c>
       <c r="G13">
-        <v>25.87228735820728</v>
+        <v>69.30782224760921</v>
       </c>
       <c r="H13">
-        <v>6.147302128074181</v>
+        <v>5.827027931602392</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.107911372373837</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>18.49144651966199</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>33.44636775830769</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.409404877300143</v>
       </c>
       <c r="M13">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.947404490728521</v>
       </c>
       <c r="O13">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>40.44827041492959</v>
+      </c>
+      <c r="P13">
+        <v>22.72033971995188</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.411384254700414</v>
+        <v>7.173185460287048</v>
       </c>
       <c r="D14">
-        <v>4.819126289058849</v>
+        <v>5.101789671711559</v>
       </c>
       <c r="E14">
-        <v>77.67827313123043</v>
+        <v>8.902342909088935</v>
       </c>
       <c r="F14">
-        <v>17.76735893503709</v>
+        <v>43.56673568400556</v>
       </c>
       <c r="G14">
-        <v>25.87228735820728</v>
+        <v>67.01489022753049</v>
       </c>
       <c r="H14">
-        <v>6.147302128074181</v>
+        <v>6.698515535449564</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.998539997645044</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>17.98288719451992</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>32.3967837147105</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.478391852894744</v>
       </c>
       <c r="M14">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.115660890198303</v>
       </c>
       <c r="O14">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>39.42596307701383</v>
+      </c>
+      <c r="P14">
+        <v>22.73112918177208</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.411384254700414</v>
+        <v>7.148684733835112</v>
       </c>
       <c r="D15">
-        <v>4.819126289058849</v>
+        <v>5.097261895439711</v>
       </c>
       <c r="E15">
-        <v>77.67827313123043</v>
+        <v>8.944755850281153</v>
       </c>
       <c r="F15">
-        <v>17.76735893503709</v>
+        <v>43.07401129220542</v>
       </c>
       <c r="G15">
-        <v>25.87228735820728</v>
+        <v>66.22561114940191</v>
       </c>
       <c r="H15">
-        <v>6.147302128074181</v>
+        <v>6.893403024448321</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.949766021683772</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>17.81275705949732</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>32.04539971499673</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.492299759053448</v>
       </c>
       <c r="M15">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.151361501172067</v>
       </c>
       <c r="O15">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>39.04732984180303</v>
+      </c>
+      <c r="P15">
+        <v>22.68167283952964</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.411384254700414</v>
+        <v>6.966206126145622</v>
       </c>
       <c r="D16">
-        <v>4.819126289058849</v>
+        <v>4.985577129627691</v>
       </c>
       <c r="E16">
-        <v>77.67827313123043</v>
+        <v>8.775007589938449</v>
       </c>
       <c r="F16">
-        <v>17.76735893503709</v>
+        <v>42.0476541273752</v>
       </c>
       <c r="G16">
-        <v>25.87228735820728</v>
+        <v>64.39233390905613</v>
       </c>
       <c r="H16">
-        <v>6.147302128074181</v>
+        <v>6.581216203762355</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.734706694348701</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>17.4540618101629</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>31.32039926255699</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.42777037665411</v>
       </c>
       <c r="M16">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.081766593045821</v>
       </c>
       <c r="O16">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>37.91982141210026</v>
+      </c>
+      <c r="P16">
+        <v>22.15509296293348</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.411384254700414</v>
+        <v>6.842637581999529</v>
       </c>
       <c r="D17">
-        <v>4.819126289058849</v>
+        <v>4.879663180813014</v>
       </c>
       <c r="E17">
-        <v>77.67827313123043</v>
+        <v>8.515893597071138</v>
       </c>
       <c r="F17">
-        <v>17.76735893503709</v>
+        <v>42.07202986823409</v>
       </c>
       <c r="G17">
-        <v>25.87228735820728</v>
+        <v>64.24050346827677</v>
       </c>
       <c r="H17">
-        <v>6.147302128074181</v>
+        <v>5.82039110517776</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.627367874622636</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>17.45568209418557</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>31.33609476289297</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.337236458770014</v>
       </c>
       <c r="M17">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.935323470390685</v>
       </c>
       <c r="O17">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>37.60729351015335</v>
+      </c>
+      <c r="P17">
+        <v>21.73921454399331</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.411384254700414</v>
+        <v>6.75646206517853</v>
       </c>
       <c r="D18">
-        <v>4.819126289058849</v>
+        <v>4.772277855875535</v>
       </c>
       <c r="E18">
-        <v>77.67827313123043</v>
+        <v>8.18143945451553</v>
       </c>
       <c r="F18">
-        <v>17.76735893503709</v>
+        <v>43.04284837838217</v>
       </c>
       <c r="G18">
-        <v>25.87228735820728</v>
+        <v>65.59582599707127</v>
       </c>
       <c r="H18">
-        <v>6.147302128074181</v>
+        <v>4.628537531627314</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.602675054566155</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>17.78148251856218</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>32.02756544439508</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.236526232299297</v>
       </c>
       <c r="M18">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.731729076803941</v>
       </c>
       <c r="O18">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>37.99367555651435</v>
+      </c>
+      <c r="P18">
+        <v>21.3728400004381</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.411384254700414</v>
+        <v>6.726645537554946</v>
       </c>
       <c r="D19">
-        <v>4.819126289058849</v>
+        <v>4.664002833480731</v>
       </c>
       <c r="E19">
-        <v>77.67827313123043</v>
+        <v>7.860977263003575</v>
       </c>
       <c r="F19">
-        <v>17.76735893503709</v>
+        <v>44.59796047721076</v>
       </c>
       <c r="G19">
-        <v>25.87228735820728</v>
+        <v>67.88564532704868</v>
       </c>
       <c r="H19">
-        <v>6.147302128074181</v>
+        <v>3.350323603053765</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.652626129231656</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>18.30460266360554</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>33.1203343249741</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.169973357803156</v>
       </c>
       <c r="M19">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.524558213561797</v>
       </c>
       <c r="O19">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>38.86318125245513</v>
+      </c>
+      <c r="P19">
+        <v>21.08683356784283</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.411384254700414</v>
+        <v>6.837758708049135</v>
       </c>
       <c r="D20">
-        <v>4.819126289058849</v>
+        <v>4.576373410261635</v>
       </c>
       <c r="E20">
-        <v>77.67827313123043</v>
+        <v>7.603187883741307</v>
       </c>
       <c r="F20">
-        <v>17.76735893503709</v>
+        <v>47.82213534296239</v>
       </c>
       <c r="G20">
-        <v>25.87228735820728</v>
+        <v>72.86004430477942</v>
       </c>
       <c r="H20">
-        <v>6.147302128074181</v>
+        <v>2.634862028359917</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.90521040915273</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>19.40376603317286</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>35.39659853738065</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.195526550661105</v>
       </c>
       <c r="M20">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.328562337138244</v>
       </c>
       <c r="O20">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>41.07740236445145</v>
+      </c>
+      <c r="P20">
+        <v>21.02823717427431</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.411384254700414</v>
+        <v>7.178998819460625</v>
       </c>
       <c r="D21">
-        <v>4.819126289058849</v>
+        <v>4.728831328101492</v>
       </c>
       <c r="E21">
-        <v>77.67827313123043</v>
+        <v>7.765103305563335</v>
       </c>
       <c r="F21">
-        <v>17.76735893503709</v>
+        <v>50.43509903946948</v>
       </c>
       <c r="G21">
-        <v>25.87228735820728</v>
+        <v>77.24681673192197</v>
       </c>
       <c r="H21">
-        <v>6.147302128074181</v>
+        <v>3.125149574723006</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.340857088752186</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>20.32133093014659</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>37.24671020085598</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.285589716297428</v>
       </c>
       <c r="M21">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.335990527049865</v>
       </c>
       <c r="O21">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>43.53843973799681</v>
+      </c>
+      <c r="P21">
+        <v>21.87926554674314</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.411384254700414</v>
+        <v>7.397309049606807</v>
       </c>
       <c r="D22">
-        <v>4.819126289058849</v>
+        <v>4.838511984755593</v>
       </c>
       <c r="E22">
-        <v>77.67827313123043</v>
+        <v>7.881613083179322</v>
       </c>
       <c r="F22">
-        <v>17.76735893503709</v>
+        <v>52.03838236999078</v>
       </c>
       <c r="G22">
-        <v>25.87228735820728</v>
+        <v>79.94772372362753</v>
       </c>
       <c r="H22">
-        <v>6.147302128074181</v>
+        <v>3.436534699457706</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.617276931824446</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>20.89099179771189</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>38.39304177879758</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.342371372035043</v>
       </c>
       <c r="M22">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.349449832742317</v>
       </c>
       <c r="O22">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>45.03432422903954</v>
+      </c>
+      <c r="P22">
+        <v>22.42964941955099</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.411384254700414</v>
+        <v>7.278423197376684</v>
       </c>
       <c r="D23">
-        <v>4.819126289058849</v>
+        <v>4.785339930766253</v>
       </c>
       <c r="E23">
-        <v>77.67827313123043</v>
+        <v>7.82062420338501</v>
       </c>
       <c r="F23">
-        <v>17.76735893503709</v>
+        <v>51.23677496252358</v>
       </c>
       <c r="G23">
-        <v>25.87228735820728</v>
+        <v>78.59964930660756</v>
       </c>
       <c r="H23">
-        <v>6.147302128074181</v>
+        <v>3.27395134326221</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.470530634991597</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>20.6077971356992</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>37.83063926736838</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.313202710332728</v>
       </c>
       <c r="M23">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.344261061157897</v>
       </c>
       <c r="O23">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>44.2655045039284</v>
+      </c>
+      <c r="P23">
+        <v>22.13213870186096</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.411384254700414</v>
+        <v>6.8298738246116</v>
       </c>
       <c r="D24">
-        <v>4.819126289058849</v>
+        <v>4.571973852146677</v>
       </c>
       <c r="E24">
-        <v>77.67827313123043</v>
+        <v>7.585665668881131</v>
       </c>
       <c r="F24">
-        <v>17.76735893503709</v>
+        <v>48.04486147873468</v>
       </c>
       <c r="G24">
-        <v>25.87228735820728</v>
+        <v>73.20246653360334</v>
       </c>
       <c r="H24">
-        <v>6.147302128074181</v>
+        <v>2.646383220507329</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.907790398858241</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>19.4830478092661</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>35.57179172320764</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.199882476683892</v>
       </c>
       <c r="M24">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.320936553091617</v>
       </c>
       <c r="O24">
-        <v>13.93217055487508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>41.18410149906415</v>
+      </c>
+      <c r="P24">
+        <v>20.98157143380736</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.411384254700414</v>
+        <v>6.338693285269835</v>
       </c>
       <c r="D25">
-        <v>4.819126289058849</v>
+        <v>4.334184654804033</v>
       </c>
       <c r="E25">
-        <v>77.67827313123043</v>
+        <v>7.326126181440509</v>
       </c>
       <c r="F25">
-        <v>17.76735893503709</v>
+        <v>44.44582560455568</v>
       </c>
       <c r="G25">
-        <v>25.87228735820728</v>
+        <v>67.05389101432279</v>
       </c>
       <c r="H25">
-        <v>6.147302128074181</v>
+        <v>1.952820794722033</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.286980709860269</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>18.22879281844143</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>33.02400859422778</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.07447316898774</v>
       </c>
       <c r="M25">
-        <v>104.5477498083593</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.294744207135796</v>
       </c>
       <c r="O25">
-        <v>13.93217055487508</v>
+        <v>37.57721053766748</v>
+      </c>
+      <c r="P25">
+        <v>19.67587423725591</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.961040068681755</v>
+        <v>6.12195845024649</v>
       </c>
       <c r="D2">
-        <v>4.166094805390729</v>
+        <v>3.910678068003026</v>
       </c>
       <c r="E2">
-        <v>7.13132070095314</v>
+        <v>7.073711843735577</v>
       </c>
       <c r="F2">
-        <v>41.81005557986012</v>
+        <v>37.81893286414948</v>
       </c>
       <c r="G2">
-        <v>62.49804409057026</v>
+        <v>55.20342970565214</v>
       </c>
       <c r="H2">
-        <v>1.691065060488529</v>
+        <v>1.754805782717139</v>
       </c>
       <c r="I2">
-        <v>2.814343253925456</v>
+        <v>2.795660695924057</v>
       </c>
       <c r="J2">
-        <v>17.3275070842131</v>
+        <v>16.13729297553627</v>
       </c>
       <c r="K2">
-        <v>31.1880047938817</v>
+        <v>27.44421781626095</v>
       </c>
       <c r="L2">
-        <v>5.98141681061978</v>
+        <v>22.18097048447146</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.96757478405616</v>
       </c>
       <c r="N2">
-        <v>5.279037588992135</v>
+        <v>5.892183089008136</v>
       </c>
       <c r="O2">
-        <v>34.74625284889289</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>18.64979982874199</v>
+        <v>5.415579226146455</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>32.83036635754452</v>
+      </c>
+      <c r="R2">
+        <v>19.03279272723819</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.702004039652557</v>
+        <v>5.761159406853669</v>
       </c>
       <c r="D3">
-        <v>4.040557483644096</v>
+        <v>3.852088330895383</v>
       </c>
       <c r="E3">
-        <v>6.993063887583403</v>
+        <v>6.964855074579103</v>
       </c>
       <c r="F3">
-        <v>39.87106734928592</v>
+        <v>36.24105866787709</v>
       </c>
       <c r="G3">
-        <v>59.10889856631728</v>
+        <v>52.44021686983073</v>
       </c>
       <c r="H3">
-        <v>2.069153943694409</v>
+        <v>2.073976975610791</v>
       </c>
       <c r="I3">
-        <v>2.48292637129582</v>
+        <v>2.528177759406862</v>
       </c>
       <c r="J3">
-        <v>16.66834634966809</v>
+        <v>15.58354668458361</v>
       </c>
       <c r="K3">
-        <v>29.8186221995225</v>
+        <v>26.40469828882292</v>
       </c>
       <c r="L3">
-        <v>5.914154648992954</v>
+        <v>21.61973041758422</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.93400891990629</v>
       </c>
       <c r="N3">
-        <v>5.264904500540054</v>
+        <v>5.835634851101464</v>
       </c>
       <c r="O3">
-        <v>32.63896629427595</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>17.93445925357246</v>
+        <v>5.436976225820104</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>30.88689049416392</v>
+      </c>
+      <c r="R3">
+        <v>18.26834192486587</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.539346699052325</v>
+        <v>5.533605917456281</v>
       </c>
       <c r="D4">
-        <v>3.961359294878216</v>
+        <v>3.815396084414628</v>
       </c>
       <c r="E4">
-        <v>6.905680291456802</v>
+        <v>6.895942358822621</v>
       </c>
       <c r="F4">
-        <v>38.64357391629167</v>
+        <v>35.24139546474947</v>
       </c>
       <c r="G4">
-        <v>56.94424355202575</v>
+        <v>50.67775096644878</v>
       </c>
       <c r="H4">
-        <v>2.307974075782665</v>
+        <v>2.276157591988176</v>
       </c>
       <c r="I4">
-        <v>2.678066380179063</v>
+        <v>2.59467467912097</v>
       </c>
       <c r="J4">
-        <v>16.25462115970855</v>
+        <v>15.23263462923329</v>
       </c>
       <c r="K4">
-        <v>28.95098609891127</v>
+        <v>25.74507474263196</v>
       </c>
       <c r="L4">
-        <v>5.871405991421538</v>
+        <v>21.25511870949715</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>17.2921163163813</v>
       </c>
       <c r="N4">
-        <v>5.255761538819917</v>
+        <v>5.799588614770013</v>
       </c>
       <c r="O4">
-        <v>31.26951040357743</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>17.48313148845767</v>
+        <v>5.450377358626582</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>29.62221282091407</v>
+      </c>
+      <c r="R4">
+        <v>17.78529097400321</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.472859136605165</v>
+        <v>5.443761742795399</v>
       </c>
       <c r="D5">
-        <v>3.927124115299249</v>
+        <v>3.799333419850615</v>
       </c>
       <c r="E5">
-        <v>6.869107105351284</v>
+        <v>6.867097957221535</v>
       </c>
       <c r="F5">
-        <v>38.11838792867525</v>
+        <v>34.81179951916052</v>
       </c>
       <c r="G5">
-        <v>56.01307206001393</v>
+        <v>49.91703416808844</v>
       </c>
       <c r="H5">
-        <v>2.407947854792135</v>
+        <v>2.360915644749041</v>
       </c>
       <c r="I5">
-        <v>2.772671406730085</v>
+        <v>2.672517577812942</v>
       </c>
       <c r="J5">
-        <v>16.07783789214757</v>
+        <v>15.0813845278801</v>
       </c>
       <c r="K5">
-        <v>28.57620792485685</v>
+        <v>25.45768705254039</v>
       </c>
       <c r="L5">
-        <v>5.853284712009361</v>
+        <v>21.0909126640541</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>17.0195624888543</v>
       </c>
       <c r="N5">
-        <v>5.251453091895713</v>
+        <v>5.784355108919239</v>
       </c>
       <c r="O5">
-        <v>30.6844527504889</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>17.29799137146318</v>
+        <v>5.45592075627278</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>29.08143975796287</v>
+      </c>
+      <c r="R5">
+        <v>17.58675747787867</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.462711956053075</v>
+        <v>5.434158493302712</v>
       </c>
       <c r="D6">
-        <v>3.919641926977212</v>
+        <v>3.795516682412361</v>
       </c>
       <c r="E6">
-        <v>6.862607886542106</v>
+        <v>6.861996200441062</v>
       </c>
       <c r="F6">
-        <v>38.01089351673335</v>
+        <v>34.72184766229152</v>
       </c>
       <c r="G6">
-        <v>55.82218046335433</v>
+        <v>49.75731963819559</v>
       </c>
       <c r="H6">
-        <v>2.425777967961242</v>
+        <v>2.376027248856877</v>
       </c>
       <c r="I6">
-        <v>2.79313886581938</v>
+        <v>2.690716464313963</v>
       </c>
       <c r="J6">
-        <v>16.04090481930578</v>
+        <v>15.04921426145356</v>
       </c>
       <c r="K6">
-        <v>28.49549720415283</v>
+        <v>25.39319823806629</v>
       </c>
       <c r="L6">
-        <v>5.849860701578541</v>
+        <v>21.05039922157219</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>16.96220583535493</v>
       </c>
       <c r="N6">
-        <v>5.25016655416009</v>
+        <v>5.781559241525613</v>
       </c>
       <c r="O6">
-        <v>30.5762419742742</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>17.26902177740131</v>
+        <v>5.456873109226707</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>28.9813041246142</v>
+      </c>
+      <c r="R6">
+        <v>17.55542732967578</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.540982007362793</v>
+        <v>5.541135543676797</v>
       </c>
       <c r="D7">
-        <v>3.956084028790173</v>
+        <v>3.809283179482422</v>
       </c>
       <c r="E7">
-        <v>6.904145218870321</v>
+        <v>6.893621115557785</v>
       </c>
       <c r="F7">
-        <v>38.58329918754668</v>
+        <v>35.1577164817621</v>
       </c>
       <c r="G7">
-        <v>56.83768009959647</v>
+        <v>50.65944373599801</v>
       </c>
       <c r="H7">
-        <v>2.312364963816669</v>
+        <v>2.280988258666728</v>
       </c>
       <c r="I7">
-        <v>2.691845284650557</v>
+        <v>2.610652173461895</v>
       </c>
       <c r="J7">
-        <v>16.23210418959635</v>
+        <v>15.14210214486375</v>
       </c>
       <c r="K7">
-        <v>28.89717282440206</v>
+        <v>25.67682367594404</v>
       </c>
       <c r="L7">
-        <v>5.870107345512403</v>
+        <v>21.20268364906252</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>17.24093001210202</v>
       </c>
       <c r="N7">
-        <v>5.254140380921496</v>
+        <v>5.798411664499889</v>
       </c>
       <c r="O7">
-        <v>31.23516435078803</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>17.48588435849003</v>
+        <v>5.450539786428193</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>29.57734139795709</v>
+      </c>
+      <c r="R7">
+        <v>17.79009359930065</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.875600201214186</v>
+        <v>5.998936385691931</v>
       </c>
       <c r="D8">
-        <v>4.116971231044904</v>
+        <v>3.877453335430608</v>
       </c>
       <c r="E8">
-        <v>7.082820551315545</v>
+        <v>7.031878822812423</v>
       </c>
       <c r="F8">
-        <v>41.08243001152503</v>
+        <v>37.12857356835901</v>
       </c>
       <c r="G8">
-        <v>61.22995697654291</v>
+        <v>54.40313039756032</v>
       </c>
       <c r="H8">
-        <v>1.824039656083602</v>
+        <v>1.870485977700438</v>
       </c>
       <c r="I8">
-        <v>2.701349194708686</v>
+        <v>2.703264347189214</v>
       </c>
       <c r="J8">
-        <v>17.07657840483661</v>
+        <v>15.70256902397933</v>
       </c>
       <c r="K8">
-        <v>30.65999928954239</v>
+        <v>26.97095962511559</v>
       </c>
       <c r="L8">
-        <v>5.957175666271123</v>
+        <v>21.90011869572879</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>18.52340034918677</v>
       </c>
       <c r="N8">
-        <v>5.272122659584457</v>
+        <v>5.871177287114177</v>
       </c>
       <c r="O8">
-        <v>34.00273154118678</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>18.41251337481036</v>
+        <v>5.423100351057004</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>32.10500194664703</v>
+      </c>
+      <c r="R8">
+        <v>18.78663788586255</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.501362410653415</v>
+        <v>6.846506847572059</v>
       </c>
       <c r="D9">
-        <v>4.423550079229447</v>
+        <v>4.020971458140722</v>
       </c>
       <c r="E9">
-        <v>7.416217595539488</v>
+        <v>7.292664020965463</v>
       </c>
       <c r="F9">
-        <v>45.76212937471762</v>
+        <v>40.92289163898857</v>
       </c>
       <c r="G9">
-        <v>69.3126406328869</v>
+        <v>61.05279519187696</v>
       </c>
       <c r="H9">
-        <v>2.194065422344372</v>
+        <v>2.005656556473915</v>
       </c>
       <c r="I9">
-        <v>3.498788737879945</v>
+        <v>3.342319182331016</v>
       </c>
       <c r="J9">
-        <v>18.68898005120224</v>
+        <v>16.99867040960011</v>
       </c>
       <c r="K9">
-        <v>33.9739138832643</v>
+        <v>29.47854560866417</v>
       </c>
       <c r="L9">
-        <v>6.118939743031286</v>
+        <v>23.22322550612698</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>21.06650161577944</v>
       </c>
       <c r="N9">
-        <v>5.306695951561519</v>
+        <v>6.006004940785298</v>
       </c>
       <c r="O9">
-        <v>38.86973291808814</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>20.11536227430918</v>
+        <v>5.371318071299036</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>36.57916756354814</v>
+      </c>
+      <c r="R9">
+        <v>20.60447771695204</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.947003734238903</v>
+        <v>7.427536483904494</v>
       </c>
       <c r="D10">
-        <v>4.648052293714972</v>
+        <v>4.118755566862212</v>
       </c>
       <c r="E10">
-        <v>7.671834938931044</v>
+        <v>7.492214246499347</v>
       </c>
       <c r="F10">
-        <v>48.74159044922662</v>
+        <v>43.17790175097009</v>
       </c>
       <c r="G10">
-        <v>74.43243843060783</v>
+        <v>65.62445678527887</v>
       </c>
       <c r="H10">
-        <v>2.804069774599234</v>
+        <v>2.509603547276384</v>
       </c>
       <c r="I10">
-        <v>4.049758056420454</v>
+        <v>3.77782121442695</v>
       </c>
       <c r="J10">
-        <v>19.73222536572788</v>
+        <v>17.46907750368844</v>
       </c>
       <c r="K10">
-        <v>36.07547986343118</v>
+        <v>30.95148845951835</v>
       </c>
       <c r="L10">
-        <v>6.226614489764838</v>
+        <v>23.91248695224202</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>22.66445093744148</v>
       </c>
       <c r="N10">
-        <v>5.342997320094211</v>
+        <v>6.09927008272853</v>
       </c>
       <c r="O10">
-        <v>41.92870611368465</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>21.32426722493601</v>
+        <v>5.333696602395317</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>39.32596976709224</v>
+      </c>
+      <c r="R10">
+        <v>21.89870712067624</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.138167375604029</v>
+        <v>7.718092140411256</v>
       </c>
       <c r="D11">
-        <v>4.850274303031314</v>
+        <v>4.237959154729495</v>
       </c>
       <c r="E11">
-        <v>8.028872716510525</v>
+        <v>7.824951438141435</v>
       </c>
       <c r="F11">
-        <v>47.99363138693423</v>
+        <v>42.14224350239785</v>
       </c>
       <c r="G11">
-        <v>73.59269972311667</v>
+        <v>65.60998568025019</v>
       </c>
       <c r="H11">
-        <v>3.554927392188049</v>
+        <v>3.297368027772329</v>
       </c>
       <c r="I11">
-        <v>4.190220766831747</v>
+        <v>3.887145220131042</v>
       </c>
       <c r="J11">
-        <v>19.48890890874219</v>
+        <v>16.49245491994779</v>
       </c>
       <c r="K11">
-        <v>35.52582707614946</v>
+        <v>30.21109910533932</v>
       </c>
       <c r="L11">
-        <v>6.266254889613865</v>
+        <v>23.17823784833359</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>22.30762704705177</v>
       </c>
       <c r="N11">
-        <v>5.519764182842007</v>
+        <v>6.186596813200302</v>
       </c>
       <c r="O11">
-        <v>42.0352016271448</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>22.12457280637419</v>
+        <v>5.351041457713413</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>39.3173611590345</v>
+      </c>
+      <c r="R11">
+        <v>22.7327862114875</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.213816489427807</v>
+        <v>7.842653679356477</v>
       </c>
       <c r="D12">
-        <v>4.983815927076649</v>
+        <v>4.334095852060382</v>
       </c>
       <c r="E12">
-        <v>8.358389060392943</v>
+        <v>8.144571414770537</v>
       </c>
       <c r="F12">
-        <v>46.78647075590141</v>
+        <v>40.92465478101559</v>
       </c>
       <c r="G12">
-        <v>71.91027505476217</v>
+        <v>64.51007163229299</v>
       </c>
       <c r="H12">
-        <v>4.641358025325451</v>
+        <v>4.44840191050875</v>
       </c>
       <c r="I12">
-        <v>4.199671149367166</v>
+        <v>3.894249341950354</v>
       </c>
       <c r="J12">
-        <v>19.0831748455373</v>
+        <v>15.80316896850312</v>
       </c>
       <c r="K12">
-        <v>34.6715643115493</v>
+        <v>29.38328775074784</v>
       </c>
       <c r="L12">
-        <v>6.329121247023731</v>
+        <v>22.49795158599624</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>21.74969871145069</v>
       </c>
       <c r="N12">
-        <v>5.722912888675419</v>
+        <v>6.29057372690502</v>
       </c>
       <c r="O12">
-        <v>41.5193805908261</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>22.54751767873798</v>
+        <v>5.441058939000333</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>38.80243217997675</v>
+      </c>
+      <c r="R12">
+        <v>23.1592593166593</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.209083298536968</v>
+        <v>7.881487434999013</v>
       </c>
       <c r="D13">
-        <v>5.06705115936282</v>
+        <v>4.424224437470852</v>
       </c>
       <c r="E13">
-        <v>8.677568447451302</v>
+        <v>8.47519807236691</v>
       </c>
       <c r="F13">
-        <v>45.05155686085895</v>
+        <v>39.45922749159288</v>
       </c>
       <c r="G13">
-        <v>69.30782224760921</v>
+        <v>62.19747602434835</v>
       </c>
       <c r="H13">
-        <v>5.827027931602392</v>
+        <v>5.691210424224977</v>
       </c>
       <c r="I13">
-        <v>4.107911372373837</v>
+        <v>3.826291246556617</v>
       </c>
       <c r="J13">
-        <v>18.49144651966199</v>
+        <v>15.40069002929406</v>
       </c>
       <c r="K13">
-        <v>33.44636775830769</v>
+        <v>28.40301514846425</v>
       </c>
       <c r="L13">
-        <v>6.409404877300143</v>
+        <v>21.78879582078877</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>20.97722896275221</v>
       </c>
       <c r="N13">
-        <v>5.947404490728521</v>
+        <v>6.409754688707029</v>
       </c>
       <c r="O13">
-        <v>40.44827041492959</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>22.72033971995188</v>
+        <v>5.58896780933212</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>37.84853312593871</v>
+      </c>
+      <c r="R13">
+        <v>23.30682673358121</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.173185460287048</v>
+        <v>7.875923100757618</v>
       </c>
       <c r="D14">
-        <v>5.101789671711559</v>
+        <v>4.485693665876954</v>
       </c>
       <c r="E14">
-        <v>8.902342909088935</v>
+        <v>8.720097603968989</v>
       </c>
       <c r="F14">
-        <v>43.56673568400556</v>
+        <v>38.29038285122775</v>
       </c>
       <c r="G14">
-        <v>67.01489022753049</v>
+        <v>59.98562117298171</v>
       </c>
       <c r="H14">
-        <v>6.698515535449564</v>
+        <v>6.595912495896163</v>
       </c>
       <c r="I14">
-        <v>3.998539997645044</v>
+        <v>3.745553529393423</v>
       </c>
       <c r="J14">
-        <v>17.98288719451992</v>
+        <v>15.23075483049791</v>
       </c>
       <c r="K14">
-        <v>32.3967837147105</v>
+        <v>27.62500722078125</v>
       </c>
       <c r="L14">
-        <v>6.478391852894744</v>
+        <v>21.26159807049213</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>20.32192713603394</v>
       </c>
       <c r="N14">
-        <v>6.115660890198303</v>
+        <v>6.50429803206958</v>
       </c>
       <c r="O14">
-        <v>39.42596307701383</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>22.73112918177208</v>
+        <v>5.723300390349229</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>36.96131100583235</v>
+      </c>
+      <c r="R14">
+        <v>23.28684929232733</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.148684733835112</v>
+        <v>7.861222404018499</v>
       </c>
       <c r="D15">
-        <v>5.097261895439711</v>
+        <v>4.497638118326675</v>
       </c>
       <c r="E15">
-        <v>8.944755850281153</v>
+        <v>8.772957715792458</v>
       </c>
       <c r="F15">
-        <v>43.07401129220542</v>
+        <v>37.93145456184627</v>
       </c>
       <c r="G15">
-        <v>66.22561114940191</v>
+        <v>59.16761002542565</v>
       </c>
       <c r="H15">
-        <v>6.893403024448321</v>
+        <v>6.800000803333886</v>
       </c>
       <c r="I15">
-        <v>3.949766021683772</v>
+        <v>3.709974007160002</v>
       </c>
       <c r="J15">
-        <v>17.81275705949732</v>
+        <v>15.23183069679792</v>
       </c>
       <c r="K15">
-        <v>32.04539971499673</v>
+        <v>27.38473661276545</v>
       </c>
       <c r="L15">
-        <v>6.492299759053448</v>
+        <v>21.11249177984065</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>20.10287501340465</v>
       </c>
       <c r="N15">
-        <v>6.151361501172067</v>
+        <v>6.524386031146362</v>
       </c>
       <c r="O15">
-        <v>39.04732984180303</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>22.68167283952964</v>
+        <v>5.757737759056968</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>36.63937438602601</v>
+      </c>
+      <c r="R15">
+        <v>23.22402347733873</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.966206126145622</v>
+        <v>7.671209764380624</v>
       </c>
       <c r="D16">
-        <v>4.985577129627691</v>
+        <v>4.468486384298334</v>
       </c>
       <c r="E16">
-        <v>8.775007589938449</v>
+        <v>8.648696917485985</v>
       </c>
       <c r="F16">
-        <v>42.0476541273752</v>
+        <v>37.38404183862677</v>
       </c>
       <c r="G16">
-        <v>64.39233390905613</v>
+        <v>56.95139063611753</v>
       </c>
       <c r="H16">
-        <v>6.581216203762355</v>
+        <v>6.50882349008381</v>
       </c>
       <c r="I16">
-        <v>3.734706694348701</v>
+        <v>3.547339736695053</v>
       </c>
       <c r="J16">
-        <v>17.4540618101629</v>
+        <v>15.60833557435847</v>
       </c>
       <c r="K16">
-        <v>31.32039926255699</v>
+        <v>27.03784651272648</v>
       </c>
       <c r="L16">
-        <v>6.42777037665411</v>
+        <v>21.01546532079157</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.64339465807357</v>
       </c>
       <c r="N16">
-        <v>6.081766593045821</v>
+        <v>6.46003246688459</v>
       </c>
       <c r="O16">
-        <v>37.91982141210026</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>22.15509296293348</v>
+        <v>5.74123124382026</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>35.71339799301735</v>
+      </c>
+      <c r="R16">
+        <v>22.64695376514764</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.842637581999529</v>
+        <v>7.516582108592194</v>
       </c>
       <c r="D17">
-        <v>4.879663180813014</v>
+        <v>4.405086964585078</v>
       </c>
       <c r="E17">
-        <v>8.515893597071138</v>
+        <v>8.407281246471722</v>
       </c>
       <c r="F17">
-        <v>42.07202986823409</v>
+        <v>37.56855364256564</v>
       </c>
       <c r="G17">
-        <v>64.24050346827677</v>
+        <v>56.55913593295585</v>
       </c>
       <c r="H17">
-        <v>5.82039110517776</v>
+        <v>5.750539142282526</v>
       </c>
       <c r="I17">
-        <v>3.627367874622636</v>
+        <v>3.464063493872301</v>
       </c>
       <c r="J17">
-        <v>17.45568209418557</v>
+        <v>15.90484365071811</v>
       </c>
       <c r="K17">
-        <v>31.33609476289297</v>
+        <v>27.17126762929367</v>
       </c>
       <c r="L17">
-        <v>6.337236458770014</v>
+        <v>21.21248410598312</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>19.62840519507258</v>
       </c>
       <c r="N17">
-        <v>5.935323470390685</v>
+        <v>6.355825102307596</v>
       </c>
       <c r="O17">
-        <v>37.60729351015335</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>21.73921454399331</v>
+        <v>5.652050125558314</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>35.46766141369177</v>
+      </c>
+      <c r="R17">
+        <v>22.21210342141343</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.75646206517853</v>
+        <v>7.375901339998114</v>
       </c>
       <c r="D18">
-        <v>4.772277855875535</v>
+        <v>4.316750521740842</v>
       </c>
       <c r="E18">
-        <v>8.18143945451553</v>
+        <v>8.07283826897263</v>
       </c>
       <c r="F18">
-        <v>43.04284837838217</v>
+        <v>38.49072843392875</v>
       </c>
       <c r="G18">
-        <v>65.59582599707127</v>
+        <v>57.62573457760265</v>
       </c>
       <c r="H18">
-        <v>4.628537531627314</v>
+        <v>4.541883223996837</v>
       </c>
       <c r="I18">
-        <v>3.602675054566155</v>
+        <v>3.441271856833169</v>
       </c>
       <c r="J18">
-        <v>17.78148251856218</v>
+        <v>16.30667067020516</v>
       </c>
       <c r="K18">
-        <v>32.02756544439508</v>
+        <v>27.80202202159173</v>
       </c>
       <c r="L18">
-        <v>6.236526232299297</v>
+        <v>21.73888367852421</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>20.04513428166601</v>
       </c>
       <c r="N18">
-        <v>5.731729076803941</v>
+        <v>6.22655451629741</v>
       </c>
       <c r="O18">
-        <v>37.99367555651435</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>21.3728400004381</v>
+        <v>5.520947189522274</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>35.83110154991363</v>
+      </c>
+      <c r="R18">
+        <v>21.84751790421157</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.726645537554946</v>
+        <v>7.292208434483586</v>
       </c>
       <c r="D19">
-        <v>4.664002833480731</v>
+        <v>4.214193274653811</v>
       </c>
       <c r="E19">
-        <v>7.860977263003575</v>
+        <v>7.740480922315708</v>
       </c>
       <c r="F19">
-        <v>44.59796047721076</v>
+        <v>39.8639502115885</v>
       </c>
       <c r="G19">
-        <v>67.88564532704868</v>
+        <v>59.56401346385726</v>
       </c>
       <c r="H19">
-        <v>3.350323603053765</v>
+        <v>3.215855627880927</v>
       </c>
       <c r="I19">
-        <v>3.652626129231656</v>
+        <v>3.478649269299298</v>
       </c>
       <c r="J19">
-        <v>18.30460266360554</v>
+        <v>16.78266967748353</v>
       </c>
       <c r="K19">
-        <v>33.1203343249741</v>
+        <v>28.71978924198659</v>
       </c>
       <c r="L19">
-        <v>6.169973357803156</v>
+        <v>22.44362276352412</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>20.72569657355968</v>
       </c>
       <c r="N19">
-        <v>5.524558213561797</v>
+        <v>6.119838902562091</v>
       </c>
       <c r="O19">
-        <v>38.86318125245513</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>21.08683356784283</v>
+        <v>5.405345350530373</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>36.61973212752319</v>
+      </c>
+      <c r="R19">
+        <v>21.57708909532145</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.837758708049135</v>
+        <v>7.332285486662681</v>
       </c>
       <c r="D20">
-        <v>4.576373410261635</v>
+        <v>4.093842018176814</v>
       </c>
       <c r="E20">
-        <v>7.603187883741307</v>
+        <v>7.443127504480708</v>
       </c>
       <c r="F20">
-        <v>47.82213534296239</v>
+        <v>42.54545988564931</v>
       </c>
       <c r="G20">
-        <v>72.86004430477942</v>
+        <v>63.98458414112436</v>
       </c>
       <c r="H20">
-        <v>2.634862028359917</v>
+        <v>2.373408429350103</v>
       </c>
       <c r="I20">
-        <v>3.90521040915273</v>
+        <v>3.672090562146265</v>
       </c>
       <c r="J20">
-        <v>19.40376603317286</v>
+        <v>17.51134115290234</v>
       </c>
       <c r="K20">
-        <v>35.39659853738065</v>
+        <v>30.50882068860513</v>
       </c>
       <c r="L20">
-        <v>6.195526550661105</v>
+        <v>23.68935873468728</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>22.20219104053074</v>
       </c>
       <c r="N20">
-        <v>5.328562337138244</v>
+        <v>6.074489181116573</v>
       </c>
       <c r="O20">
-        <v>41.07740236445145</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>21.02823717427431</v>
+        <v>5.343430944202336</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>38.59654947476907</v>
+      </c>
+      <c r="R20">
+        <v>21.57191530498191</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.178998819460625</v>
+        <v>7.665173895236374</v>
       </c>
       <c r="D21">
-        <v>4.728831328101492</v>
+        <v>4.105835531038491</v>
       </c>
       <c r="E21">
-        <v>7.765103305563335</v>
+        <v>7.541305709246526</v>
       </c>
       <c r="F21">
-        <v>50.43509903946948</v>
+        <v>44.12032539173034</v>
       </c>
       <c r="G21">
-        <v>77.24681673192197</v>
+        <v>69.05979126398539</v>
       </c>
       <c r="H21">
-        <v>3.125149574723006</v>
+        <v>2.758510336336897</v>
       </c>
       <c r="I21">
-        <v>4.340857088752186</v>
+        <v>3.998137411809238</v>
       </c>
       <c r="J21">
-        <v>20.32133093014659</v>
+        <v>16.8623212528202</v>
       </c>
       <c r="K21">
-        <v>37.24671020085598</v>
+        <v>31.52891078152972</v>
       </c>
       <c r="L21">
-        <v>6.285589716297428</v>
+        <v>24.13871019519888</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>23.34291420476726</v>
       </c>
       <c r="N21">
-        <v>5.335990527049865</v>
+        <v>6.138730477498537</v>
       </c>
       <c r="O21">
-        <v>43.53843973799681</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>21.87926554674314</v>
+        <v>5.319362057690727</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>40.61963514102405</v>
+      </c>
+      <c r="R21">
+        <v>22.53053321219317</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.397309049606807</v>
+        <v>7.868652958929152</v>
       </c>
       <c r="D22">
-        <v>4.838511984755593</v>
+        <v>4.122691591270056</v>
       </c>
       <c r="E22">
-        <v>7.881613083179322</v>
+        <v>7.617780691491177</v>
       </c>
       <c r="F22">
-        <v>52.03838236999078</v>
+        <v>45.04090494875965</v>
       </c>
       <c r="G22">
-        <v>79.94772372362753</v>
+        <v>72.29136218730579</v>
       </c>
       <c r="H22">
-        <v>3.436534699457706</v>
+        <v>3.001675586504322</v>
       </c>
       <c r="I22">
-        <v>4.617276931824446</v>
+        <v>4.202069069112267</v>
       </c>
       <c r="J22">
-        <v>20.89099179771189</v>
+        <v>16.35473643048314</v>
       </c>
       <c r="K22">
-        <v>38.39304177879758</v>
+        <v>32.13272936124817</v>
       </c>
       <c r="L22">
-        <v>6.342371372035043</v>
+        <v>24.38674370400144</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>24.03890646383223</v>
       </c>
       <c r="N22">
-        <v>5.349449832742317</v>
+        <v>6.181531671414117</v>
       </c>
       <c r="O22">
-        <v>45.03432422903954</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>22.42964941955099</v>
+        <v>5.303274390506002</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>41.83094218618029</v>
+      </c>
+      <c r="R22">
+        <v>23.15048872143916</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.278423197376684</v>
+        <v>7.757778085936089</v>
       </c>
       <c r="D23">
-        <v>4.785339930766253</v>
+        <v>4.122479158331581</v>
       </c>
       <c r="E23">
-        <v>7.82062420338501</v>
+        <v>7.579757265776162</v>
       </c>
       <c r="F23">
-        <v>51.23677496252358</v>
+        <v>44.65938905274164</v>
       </c>
       <c r="G23">
-        <v>78.59964930660756</v>
+        <v>70.49275338159055</v>
       </c>
       <c r="H23">
-        <v>3.27395134326221</v>
+        <v>2.877026500630749</v>
       </c>
       <c r="I23">
-        <v>4.470530634991597</v>
+        <v>4.093837883026439</v>
       </c>
       <c r="J23">
-        <v>20.6077971356992</v>
+        <v>16.79525861328034</v>
       </c>
       <c r="K23">
-        <v>37.83063926736838</v>
+        <v>31.89761828648865</v>
       </c>
       <c r="L23">
-        <v>6.313202710332728</v>
+        <v>24.31879643614995</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>23.73447511625997</v>
       </c>
       <c r="N23">
-        <v>5.344261061157897</v>
+        <v>6.159780211535227</v>
       </c>
       <c r="O23">
-        <v>44.2655045039284</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>22.13213870186096</v>
+        <v>5.311251070712948</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>41.23663473197699</v>
+      </c>
+      <c r="R23">
+        <v>22.81081803922615</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.8298738246116</v>
+        <v>7.298101232907007</v>
       </c>
       <c r="D24">
-        <v>4.571973852146677</v>
+        <v>4.088806751753634</v>
       </c>
       <c r="E24">
-        <v>7.585665668881131</v>
+        <v>7.424179678975438</v>
       </c>
       <c r="F24">
-        <v>48.04486147873468</v>
+        <v>42.74977320429873</v>
       </c>
       <c r="G24">
-        <v>73.20246653360334</v>
+        <v>64.27671710242447</v>
       </c>
       <c r="H24">
-        <v>2.646383220507329</v>
+        <v>2.382457230948205</v>
       </c>
       <c r="I24">
-        <v>3.907790398858241</v>
+        <v>3.670559741470892</v>
       </c>
       <c r="J24">
-        <v>19.4830478092661</v>
+        <v>17.59284350655437</v>
       </c>
       <c r="K24">
-        <v>35.57179172320764</v>
+        <v>30.66496151556633</v>
       </c>
       <c r="L24">
-        <v>6.199882476683892</v>
+        <v>23.81141112633226</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>22.31577186106537</v>
       </c>
       <c r="N24">
-        <v>5.320936553091617</v>
+        <v>6.073234129291306</v>
       </c>
       <c r="O24">
-        <v>41.18410149906415</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>20.98157143380736</v>
+        <v>5.345067950060782</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>38.69499721654988</v>
+      </c>
+      <c r="R24">
+        <v>21.52664436223399</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.338693285269835</v>
+        <v>6.652905517389144</v>
       </c>
       <c r="D25">
-        <v>4.334184654804033</v>
+        <v>3.981089472501673</v>
       </c>
       <c r="E25">
-        <v>7.326126181440509</v>
+        <v>7.224060049754287</v>
       </c>
       <c r="F25">
-        <v>44.44582560455568</v>
+        <v>39.88404375710675</v>
       </c>
       <c r="G25">
-        <v>67.05389101432279</v>
+        <v>59.07984330065052</v>
       </c>
       <c r="H25">
-        <v>1.952820794722033</v>
+        <v>1.805348863677184</v>
       </c>
       <c r="I25">
-        <v>3.286980709860269</v>
+        <v>3.177158441708886</v>
       </c>
       <c r="J25">
-        <v>18.22879281844143</v>
+        <v>16.71848931465987</v>
       </c>
       <c r="K25">
-        <v>33.02400859422778</v>
+        <v>28.77414771699626</v>
       </c>
       <c r="L25">
-        <v>6.07447316898774</v>
+        <v>22.84717252094037</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>20.35543674282615</v>
       </c>
       <c r="N25">
-        <v>5.294744207135796</v>
+        <v>5.96995119778386</v>
       </c>
       <c r="O25">
-        <v>37.57721053766748</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>19.67587423725591</v>
+        <v>5.385249536844097</v>
       </c>
       <c r="Q25">
+        <v>35.40787364961169</v>
+      </c>
+      <c r="R25">
+        <v>20.13150842523676</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
